--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -105,6 +105,435 @@
   </x:si>
   <x:si>
     <x:t>2024 March 29 3:18:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:50:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:50:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:52:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:52:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:53:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:53:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:54:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:54:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:55:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:55:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:55:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 3:55:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:04:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:04:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:30:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:30:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:30:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:30:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:34:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:34:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:34:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:35:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:35:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:35:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:36:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:36:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:36:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:37:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:37:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:38:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:38:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:39:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:39:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:39:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:40:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:40:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:40:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:41:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:41:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:41:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:41:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:43:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:44:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:44:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:48:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:48:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:48:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:51:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:51:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:52:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:53:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:53:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:53:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:54:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:54:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:54:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:56:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:56:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:56:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:56:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:59:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 4:59:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:05:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:05:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:05:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:06:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:06:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:39:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:39:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:39:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:39:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:39:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:58:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:58:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:59:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 5:59:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:00:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:00:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:01:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:01:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:05:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:05:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:07:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:07:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:08:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:08:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:11:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:11:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:12:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:12:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:12:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:13:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:13:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:18:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:18:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:20:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:20:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:20:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:20:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:21:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:21:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:21:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:23:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:23:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:28:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:28:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:28:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:28:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acc Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:51:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:51:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:51:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:52:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:52:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:53:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:54:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:54:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 6:54:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:02:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:02:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:03:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:03:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:03:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:06:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:06:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:07:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:07:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:10:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:10:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:10:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:11:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:12:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:12:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:12:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:13:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:13:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:15:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:15:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:15:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:15:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:19:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:19:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:20:14 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -683,6 +1112,1568 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B22" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B23" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C23" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C24" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B25" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B26" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B27" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B28" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B29" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B30" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B31" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B32" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B33" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C33" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B34" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B35" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C35" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B36" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C36" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B37" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C37" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B38" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C38" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B40" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C40" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B41" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C41" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B42" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C42" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B43" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C43" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B44" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C44" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B45" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C45" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B46" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C46" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B47" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C47" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B48" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C48" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B49" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C49" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B50" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C50" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B51" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C51" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B52" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C52" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B53" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C53" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B54" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C54" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B55" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C55" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B56" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C56" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B57" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C57" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B58" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C58" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B59" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C59" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B60" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C60" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B61" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C61" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B62" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C62" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B63" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C63" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B64" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C64" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B65" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C65" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B66" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C66" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B67" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C67" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B68" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C68" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B69" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C69" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B70" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C70" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B71" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C71" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B72" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C72" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B73" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C73" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B74" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C74" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="B75" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C75" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B76" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C76" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B77" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C77" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B78" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C78" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B79" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C79" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B80" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C80" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B81" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C81" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B82" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C82" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B83" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C83" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B84" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C84" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B85" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C85" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B86" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C86" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B87" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C87" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B88" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C88" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B89" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C89" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B90" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C90" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B91" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C91" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B92" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C92" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B93" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C93" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B94" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C94" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B95" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C95" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B96" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C96" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B97" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C97" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B98" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C98" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B99" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C99" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B100" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C100" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B101" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C101" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B102" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C102" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B103" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C103" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B104" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C104" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B105" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C105" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B106" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C106" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B107" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C107" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="B108" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C108" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C109" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B110" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C110" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B111" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C111" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B112" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C112" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B113" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C113" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114">
+      <x:c r="A114" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B114" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C114" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115">
+      <x:c r="A115" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B115" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C115" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116">
+      <x:c r="A116" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B116" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C116" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117">
+      <x:c r="A117" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B117" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C117" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118">
+      <x:c r="A118" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B118" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C118" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119">
+      <x:c r="A119" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="B119" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C119" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120">
+      <x:c r="A120" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B120" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C120" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121">
+      <x:c r="A121" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B121" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C121" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122">
+      <x:c r="A122" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B122" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C122" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B123" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C123" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B124" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C124" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B125" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C125" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B126" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C126" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B127" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C127" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B128" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C128" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B129" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C129" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B130" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C130" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B131" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C131" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B132" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C132" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B133" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C133" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B134" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C134" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B135" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C135" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B136" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C136" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B137" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C137" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B138" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C138" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B139" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C139" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B140" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C140" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B141" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C141" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B142" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C142" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B143" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C143" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B144" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C144" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B145" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C145" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B146" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C146" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B147" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C147" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B148" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C148" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="B149" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C149" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B150" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C150" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B151" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C151" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B152" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C152" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B153" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C153" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B154" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C154" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B155" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C155" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156">
+      <x:c r="A156" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B156" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C156" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157">
+      <x:c r="A157" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B157" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C157" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158">
+      <x:c r="A158" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B158" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C158" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159">
+      <x:c r="A159" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B159" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C159" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160">
+      <x:c r="A160" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B160" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C160" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -534,6 +534,195 @@
   </x:si>
   <x:si>
     <x:t>2024 March 29 7:20:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:26:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:26:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:27:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:27:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:28:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:28:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:29:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:29:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:32:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:32:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:37:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:37:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:40:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:40:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:42:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:42:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:43:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:43:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:43:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:43:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:45:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:45:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:46:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:46:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:47:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:47:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:48:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:48:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:48:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:55:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 7:55:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:06:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:06:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:12:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:12:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:14:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:14:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:16:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:16:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:17:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:18:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:19:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:19:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:26:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:26:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:29:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:29:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:51:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:51:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:51:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReadyComment Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:57:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:57:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:59:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 8:59:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:00:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:00:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:02:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:02:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:05:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:05:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:06:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:06:25 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2674,6 +2863,688 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="161">
+      <x:c r="A161" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B161" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C161" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B162" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C162" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163">
+      <x:c r="A163" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C163" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B164" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C164" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B165" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C165" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B166" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C166" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167">
+      <x:c r="A167" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C167" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168">
+      <x:c r="A168" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C168" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169">
+      <x:c r="A169" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C169" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170">
+      <x:c r="A170" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C170" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171">
+      <x:c r="A171" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B171" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C171" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172">
+      <x:c r="A172" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B172" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C172" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173">
+      <x:c r="A173" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C173" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174">
+      <x:c r="A174" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C174" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175">
+      <x:c r="A175" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C175" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176">
+      <x:c r="A176" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B176" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C176" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177">
+      <x:c r="A177" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B177" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C177" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178">
+      <x:c r="A178" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B178" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C178" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179">
+      <x:c r="A179" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C179" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180">
+      <x:c r="A180" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C180" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181">
+      <x:c r="A181" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="B181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C181" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182">
+      <x:c r="A182" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C182" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183">
+      <x:c r="A183" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C183" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184">
+      <x:c r="A184" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C184" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185">
+      <x:c r="A185" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="B185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C185" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186">
+      <x:c r="A186" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="B186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C186" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187">
+      <x:c r="A187" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C187" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188">
+      <x:c r="A188" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="B188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C188" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189">
+      <x:c r="A189" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C189" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190">
+      <x:c r="A190" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C190" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191">
+      <x:c r="A191" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="B191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C191" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192">
+      <x:c r="A192" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C192" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193">
+      <x:c r="A193" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="B193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C193" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194">
+      <x:c r="A194" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B194" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C194" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195">
+      <x:c r="A195" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C195" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196">
+      <x:c r="A196" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="B196" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C196" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197">
+      <x:c r="A197" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C197" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198">
+      <x:c r="A198" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="B198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C198" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199">
+      <x:c r="A199" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C199" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200">
+      <x:c r="A200" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C200" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201">
+      <x:c r="A201" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C201" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202">
+      <x:c r="A202" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C202" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203">
+      <x:c r="A203" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C203" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204">
+      <x:c r="A204" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C204" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205">
+      <x:c r="A205" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C205" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206">
+      <x:c r="A206" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C206" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207">
+      <x:c r="A207" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C207" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208">
+      <x:c r="A208" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C208" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209">
+      <x:c r="A209" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C209" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210">
+      <x:c r="A210" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C210" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211">
+      <x:c r="A211" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C211" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212">
+      <x:c r="A212" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C212" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213">
+      <x:c r="A213" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C213" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214">
+      <x:c r="A214" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C214" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215">
+      <x:c r="A215" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B215" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C215" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216">
+      <x:c r="A216" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B216" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C216" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217">
+      <x:c r="A217" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B217" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C217" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218">
+      <x:c r="A218" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="B218" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C218" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219">
+      <x:c r="A219" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B219" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C219" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220">
+      <x:c r="A220" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B220" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C220" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221">
+      <x:c r="A221" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B221" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C221" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222">
+      <x:c r="A222" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B222" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C222" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -723,6 +723,33 @@
   </x:si>
   <x:si>
     <x:t>2024 March 29 9:06:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:09:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:10:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:10:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:11:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:11:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:12:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:12:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:12:55 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3545,6 +3572,94 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="223">
+      <x:c r="A223" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B223" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C223" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224">
+      <x:c r="A224" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B224" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C224" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225">
+      <x:c r="A225" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B225" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C225" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226">
+      <x:c r="A226" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B226" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C226" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227">
+      <x:c r="A227" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B227" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C227" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228">
+      <x:c r="A228" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B228" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C228" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229">
+      <x:c r="A229" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B229" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C229" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230">
+      <x:c r="A230" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B230" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C230" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -750,6 +750,30 @@
   </x:si>
   <x:si>
     <x:t>2024 March 29 9:12:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:18:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:18:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:19:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:22:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:22:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:23:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:23:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 29 9:24:09 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3660,6 +3684,94 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
+    <x:row r="231">
+      <x:c r="A231" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B231" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C231" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232">
+      <x:c r="A232" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="B232" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C232" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233">
+      <x:c r="A233" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B233" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C233" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234">
+      <x:c r="A234" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B234" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C234" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235">
+      <x:c r="A235" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B235" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C235" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236">
+      <x:c r="A236" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B236" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C236" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237">
+      <x:c r="A237" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B237" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C237" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238">
+      <x:c r="A238" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="B238" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C238" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -36,7 +36,272 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>2024 March 31 2:19:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ASP_SERVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReadyImage Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:19:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReadyPost Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:19:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0d666da9-416e-469f-a103-b43cad13a1f3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Auth Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:29:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:29:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:30:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ab03bfcf-5b6d-48ca-94c6-5eb226e50834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:36:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:36:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:36:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8f7637e2-e809-490f-a0b2-fdb24d1983dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:44:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:44:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:44:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5d5711d1-3a8a-47d6-9587-e76bf9987bde</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:46:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:46:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:46:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71fa73fe-99bb-4446-8911-ef11bf9951af</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 2:46:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:28:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:28:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:28:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0c5202ac-0d7e-4f25-b639-a5b368a027c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:30:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:30:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:30:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32a91787-09d1-4a7f-8c33-092b9d761ed9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:33:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:33:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:33:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>507ebeaf-07e1-460d-83cd-722fb5f61349</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:33:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b0151f25-b5e9-4e67-a9d4-356cc71a8bb6.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Image Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:33:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpdateAccImage Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:34:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:34:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:34:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>253ee7a3-11ee-4350-adf3-8a80d75b2ac3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:35:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:35:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:35:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93a53b82-c30b-41cd-839b-d537ad6cc1b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:42:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:43:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:43:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4790d9f2-6535-490e-8f49-5dd18b69a812</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:43:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:45:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:45:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:45:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>71656a8d-e57b-448b-9560-83f1118f86ff</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:45:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:46:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:47:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:47:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e96f142b-ce30-4a77-bbbe-bc1a8c3ae782</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:50:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:50:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:50:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7aad6f2b-0756-4d1d-b2b6-5ff310b4d135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:50:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:50:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:50:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36550871-c438-43f5-bfea-982198645cf6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:52:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:52:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:52:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08356b8b-2225-49d5-a84d-e975cc9a7935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:53:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:53:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:54:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3cb929e0-be5b-41ea-bf00-1342fb5f0c73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:54:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:54:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:55:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b38355b9-881b-45c7-9a97-19d362fc4228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:55:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:55:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 3:55:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5a6e39c9-fea6-4633-9011-4ecaa55aec2e</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,16 +670,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5905D49F-3DC1-4DB0-85C3-5B62E5C53D1D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5905D49F-3DC1-4DB0-85C3-5B62E5C53D1D}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1">
+      <x:c r="A1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c r="A2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3">
+      <x:c r="A3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c r="A6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c r="A7" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C7" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c r="A8" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c r="A9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c r="A10" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c r="A11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c r="A12" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B12" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c r="A13" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c r="A14" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c r="A15" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C15" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B16" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C17" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B18" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C18" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B19" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C19" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B20" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B22" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C22" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B23" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C23" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C24" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c r="A25" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B25" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c r="A26" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B26" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C26" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c r="A27" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B27" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c r="A28" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B28" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C28" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c r="A29" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c r="A30" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B30" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C30" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c r="A31" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B31" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c r="A32" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B32" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c r="A33" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B33" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C33" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c r="A34" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B34" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c r="A35" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B35" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C35" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c r="A36" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B36" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C36" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c r="A37" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B37" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C37" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c r="A38" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B38" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C38" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c r="A39" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B39" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c r="A40" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B40" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C40" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c r="A41" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B41" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C41" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c r="A42" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B42" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C42" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c r="A43" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="B43" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C43" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c r="A44" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B44" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C44" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c r="A45" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B45" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C45" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c r="A46" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B46" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C46" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c r="A47" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B47" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C47" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c r="A48" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="B48" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C48" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c r="A49" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B49" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C49" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c r="A50" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B50" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C50" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c r="A51" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B51" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C51" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c r="A52" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B52" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C52" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c r="A53" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B53" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C53" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c r="A54" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B54" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C54" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c r="A55" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B55" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C55" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c r="A56" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B56" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C56" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c r="A57" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B57" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C57" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c r="A58" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B58" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C58" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c r="A59" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="B59" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C59" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c r="A60" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B60" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C60" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c r="A61" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B61" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C61" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c r="A62" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="B62" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C62" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</x:worksheet>
 </file>
--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -300,6 +300,102 @@
   </x:si>
   <x:si>
     <x:t>5a6e39c9-fea6-4633-9011-4ecaa55aec2e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:06:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:06:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:09:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:09:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:09:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:10:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:10:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:10:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:10:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68608f85-c49f-4034-95de-37af1d00386c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:12:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:12:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:12:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e22a62e1-95b9-40bb-98a2-c29a49478909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:13:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>250d55b3-fb0f-476f-b4a7-c3f5e66f45c0.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:13:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Post Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:19:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:20:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:20:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:20:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0cbf67f2-3871-4fdd-b377-cadd083f7f0f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:21:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>da7c2a43-fb79-4d15-a426-352033896b3b.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:21:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:31:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:31:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:31:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1d247121-e17d-44b3-9449-4f70318c9aaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:32:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>910beebc-5e73-4088-b762-e0ce823111a5.jpg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1362,6 +1458,281 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="63">
+      <x:c r="A63" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B63" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C63" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c r="A64" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B64" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C64" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c r="A65" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="B65" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C65" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c r="A66" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="B66" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C66" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c r="A67" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B67" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C67" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c r="A68" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B68" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C68" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c r="A69" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="B69" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C69" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c r="A70" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B70" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C70" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c r="A71" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B71" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C71" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c r="A72" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="B72" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C72" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c r="A73" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B73" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C73" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c r="A74" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B74" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C74" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c r="A75" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="B75" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C75" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c r="A76" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="B76" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C76" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c r="A77" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B77" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C77" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c r="A78" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="B78" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C78" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c r="A79" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="B79" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C79" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c r="A80" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B80" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C80" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c r="A81" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="B81" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C81" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c r="A82" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B82" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C82" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c r="A83" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="B83" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C83" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c r="A84" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B84" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C84" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c r="A85" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B85" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C85" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c r="A86" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B86" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C86" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c r="A87" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B87" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C87" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -396,6 +396,21 @@
   </x:si>
   <x:si>
     <x:t>910beebc-5e73-4088-b762-e0ce823111a5.jpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:36:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:36:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:36:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aa675358-0ca0-471a-a24d-242953c1d064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:37:07 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1733,6 +1748,50 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
+    <x:row r="88">
+      <x:c r="A88" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B88" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C88" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c r="A89" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B89" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C89" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c r="A90" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B90" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C90" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c r="A91" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B91" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C91" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -411,6 +411,12 @@
   </x:si>
   <x:si>
     <x:t>2024 March 31 4:37:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:42:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 4:42:10 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1792,6 +1798,28 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
+    <x:row r="92">
+      <x:c r="A92" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B92" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C92" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c r="A93" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="B93" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C93" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -417,6 +417,27 @@
   </x:si>
   <x:si>
     <x:t>2024 March 31 4:42:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 5:14:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 5:14:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 5:15:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2c2bc1fb-c64f-408a-a77a-115d1da0ae0a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 5:15:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3ff450a4-90f2-40f5-8bb3-9e0ccf99e013.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 5:15:41 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1820,6 +1841,72 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
+    <x:row r="94">
+      <x:c r="A94" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B94" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C94" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c r="A95" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B95" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C95" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c r="A96" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B96" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C96" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c r="A97" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B97" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C97" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c r="A98" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="B98" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C98" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c r="A99" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="B99" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C99" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -438,6 +438,303 @@
   </x:si>
   <x:si>
     <x:t>2024 March 31 5:15:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:20:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:20:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:32:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:32:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:33:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:33:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:33:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>890f8c93-3ed5-46f0-87f5-959e9ba9f228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Acc Signal Recieved</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:37:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:37:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:43:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:44:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:44:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86ef82db-b7bd-4078-b41c-81ae2c2a0ce5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>af32baa9-d3fb-43d2-aac8-2883ccc1dd2d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:44:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9c50a04e-d033-48ce-b730-f5698b934ffd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a4559103-76fd-4d04-adf4-fb7d783d74bd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:44:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7a2faa2d-1a3a-4f97-adde-ed7a2473069d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c2c2fc1f-1091-49f6-aaaa-f9a2f1fc64dc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:44:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>019b6332-a122-4e7b-a123-3310a064c176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:45:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:45:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32735154-070d-4224-9f6a-0da96e448de1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ad9f503-2153-46dd-bd38-083a5e942834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1af9c642-a4b7-4b95-95ab-99f1760e1d3b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36e868cf-fc71-4ccb-93ac-3b85709042ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b854e52b-ca8d-4540-bbf8-cb6d9e8daa53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>db89768c-299a-4ae2-a769-e906fb299856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d650d339-1ea2-45c1-b035-c76d73d9126b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:47:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:49:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:49:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:50:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:50:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:50:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f59ae3a3-9220-4229-8be1-81bfd688df3d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>295d8d4c-c5d5-49ac-b9d3-25db47d3cb6e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a8578c88-7163-44f7-a5b3-e8d28829a613</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27e03720-05cd-4db4-8015-337847a22d64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>432cb3a8-8359-4157-b962-b8645e5813b6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2fcfa431-2b33-418e-ab9d-c8a5eb8f9856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33e28fd5-bc83-46c3-9628-462cecefe632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0c92088e-70e6-4ea5-8fcd-94bb2339ef5d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9ac11e88-de04-4304-b379-7076c8502ff2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 7:51:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b031e161-9189-41aa-99b5-cd1763b72a43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39d5c59f-70c1-4980-99a1-13a7f2e34cac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08f173cd-faf7-4f9c-af90-ec0b8c1f16de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3fa89439-ed27-436c-a973-6f9cfe50fa1c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7c246366-a5bd-412d-b3b6-58d811875c15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:06:55 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1907,6 +2204,908 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B100" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C100" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B101" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C101" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B102" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C102" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B103" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C103" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B104" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C104" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B105" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C105" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106">
+      <x:c r="A106" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B106" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C106" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107">
+      <x:c r="A107" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B107" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C107" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108">
+      <x:c r="A108" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B108" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C108" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109">
+      <x:c r="A109" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C109" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110">
+      <x:c r="A110" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="B110" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C110" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111">
+      <x:c r="A111" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B111" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C111" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112">
+      <x:c r="A112" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B112" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C112" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113">
+      <x:c r="A113" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B113" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C113" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114">
+      <x:c r="A114" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B114" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C114" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115">
+      <x:c r="A115" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B115" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C115" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116">
+      <x:c r="A116" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B116" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C116" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117">
+      <x:c r="A117" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B117" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C117" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118">
+      <x:c r="A118" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="B118" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C118" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119">
+      <x:c r="A119" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B119" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C119" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120">
+      <x:c r="A120" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B120" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C120" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121">
+      <x:c r="A121" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B121" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C121" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122">
+      <x:c r="A122" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B122" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C122" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123">
+      <x:c r="A123" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B123" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C123" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124">
+      <x:c r="A124" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B124" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="C124" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125">
+      <x:c r="A125" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B125" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="C125" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126">
+      <x:c r="A126" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B126" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C126" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127">
+      <x:c r="A127" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B127" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C127" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128">
+      <x:c r="A128" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B128" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="C128" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129">
+      <x:c r="A129" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B129" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C129" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130">
+      <x:c r="A130" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B130" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C130" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131">
+      <x:c r="A131" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B131" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C131" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132">
+      <x:c r="A132" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B132" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C132" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133">
+      <x:c r="A133" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="B133" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C133" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134">
+      <x:c r="A134" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B134" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C134" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135">
+      <x:c r="A135" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="B135" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="C135" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136">
+      <x:c r="A136" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B136" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C136" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137">
+      <x:c r="A137" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B137" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C137" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138">
+      <x:c r="A138" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="B138" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C138" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139">
+      <x:c r="A139" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B139" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C139" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140">
+      <x:c r="A140" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B140" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C140" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141">
+      <x:c r="A141" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B141" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C141" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142">
+      <x:c r="A142" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B142" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C142" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143">
+      <x:c r="A143" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B143" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C143" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144">
+      <x:c r="A144" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B144" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C144" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145">
+      <x:c r="A145" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B145" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="C145" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146">
+      <x:c r="A146" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="B146" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C146" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147">
+      <x:c r="A147" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="B147" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C147" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148">
+      <x:c r="A148" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B148" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C148" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149">
+      <x:c r="A149" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="B149" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C149" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150">
+      <x:c r="A150" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="B150" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C150" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151">
+      <x:c r="A151" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="B151" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C151" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152">
+      <x:c r="A152" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B152" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C152" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153">
+      <x:c r="A153" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="B153" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C153" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154">
+      <x:c r="A154" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="B154" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C154" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="155">
+      <x:c r="A155" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B155" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C155" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="156">
+      <x:c r="A156" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B156" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C156" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157">
+      <x:c r="A157" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="B157" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C157" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158">
+      <x:c r="A158" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B158" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C158" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159">
+      <x:c r="A159" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B159" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C159" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="160">
+      <x:c r="A160" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="B160" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C160" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161">
+      <x:c r="A161" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B161" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C161" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162">
+      <x:c r="A162" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B162" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C162" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="163">
+      <x:c r="A163" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B163" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C163" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164">
+      <x:c r="A164" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B164" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C164" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165">
+      <x:c r="A165" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="B165" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C165" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="166">
+      <x:c r="A166" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="B166" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C166" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167">
+      <x:c r="A167" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="B167" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C167" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168">
+      <x:c r="A168" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="B168" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C168" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169">
+      <x:c r="A169" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B169" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C169" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170">
+      <x:c r="A170" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C170" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171">
+      <x:c r="A171" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="B171" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C171" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172">
+      <x:c r="A172" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="B172" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C172" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173">
+      <x:c r="A173" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="B173" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C173" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174">
+      <x:c r="A174" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B174" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C174" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175">
+      <x:c r="A175" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B175" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C175" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176">
+      <x:c r="A176" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B176" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C176" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177">
+      <x:c r="A177" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="B177" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C177" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178">
+      <x:c r="A178" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="B178" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C178" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179">
+      <x:c r="A179" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="B179" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C179" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="180">
+      <x:c r="A180" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="B180" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C180" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181">
+      <x:c r="A181" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B181" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="C181" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -438,6 +438,27 @@
   </x:si>
   <x:si>
     <x:t>2024 March 31 5:15:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:01:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:01:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:03:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:03:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:04:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>821c10dd-74d9-4802-ae40-a62040fda038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:05:45 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1907,6 +1928,72 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
+    <x:row r="100">
+      <x:c r="A100" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="B100" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C100" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101">
+      <x:c r="A101" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B101" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C101" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102">
+      <x:c r="A102" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B102" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C102" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103">
+      <x:c r="A103" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B103" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C103" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104">
+      <x:c r="A104" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B104" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C104" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105">
+      <x:c r="A105" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B105" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C105" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -735,6 +735,2298 @@
   </x:si>
   <x:si>
     <x:t>2024 March 31 8:06:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:11:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:11:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ab946ca9-1c8e-4913-b7b5-4236336e81ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d097c242-7e0b-462c-b017-fb841bafcfd1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ac3915dd-c2f3-4e46-9d4e-d1755a0d7e00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ed38df46-20db-4845-a80e-580595692748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0060a4aa-e68d-4c53-926f-9f4656aaea2d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4aa95067-7c62-474a-83e1-8ce257b88e6f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49a388c4-e9e0-421c-9464-d0b593b7a86e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84a0ee6b-b762-484e-8434-c4abe91c0738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ed0b6ac2-cae6-482a-8bcb-3ed45cbc3e71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:12:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7e8df5b4-1206-45ac-b550-c2cd4aa0172c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:13:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:13:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:13:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5950358d-fb0a-4693-871e-08efe6a36f09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:13:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:19:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:19:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:20:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>171f7c72-1476-4fe7-a833-64e46eef0f4f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:20:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fde376fe-274a-4b90-afe8-223981657a0a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:22:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57d49796-b5cd-4af3-af4d-4f8b507b5748</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:23:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6e1fd20c-a0ca-4536-a161-f4c17e4ab29d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:23:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:23:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:23:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:23:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c4b602a0-b61f-4022-84e6-3e6cb5d9fc19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:23:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:29:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:29:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:30:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c2d6e2b4-6ed7-4c54-bc87-6328ef5c1781</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:30:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:32:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a078a767-1302-43cf-9512-492213211f35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56bccd9b-e450-4ad2-8fe0-f4d7285e7da3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9d4741d8-6f04-4cd5-8556-e0ce12a3e2ef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33182bad-9591-4c26-bd15-6142005be264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7787222c-99d2-4aec-a7f4-8a0432d2a1c6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5616e773-652c-443b-89d1-dfb23ab0b7df</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fb1e669f-7869-4242-b343-7128506d1c7d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24b07a5c-aac4-47b9-8b7a-dfa64117a5b7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 8:33:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:19:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:19:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3a079e03-7231-4d28-bff4-6041ddaf8d76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8ce3028b-0687-4fde-9aae-d7c2f7ddbdfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b3c577bb-61b8-4ecc-8936-044a3f18f7b9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b1d3e576-1ae6-4192-8e82-19a8c349c58b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>da0c0c3c-6c6d-4b32-aaed-3f8795862369</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7c81f225-fed5-43ce-9256-2b75e2b67aa6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0023003a-aa34-41d8-943e-bb65aae761ac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>368e9854-9abe-4b79-9250-d7fca750ad1c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a8266481-e7c0-48d2-961f-fb3f947597a2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f06a8c6a-579d-482a-96b9-1f424d793d09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:20:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:36:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:36:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:36:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9efbff0d-ba1d-4360-9b94-880b80320df1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:36:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:37:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c454af07-7261-4768-a5c6-6e5a048fcfda.png</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:37:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:39:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:39:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:39:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a9c1379d-959e-4ce8-a7f9-f3ffc276c5d5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:42:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:42:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:42:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69f00f6d-9226-4804-805b-0337749d8bb4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:43:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:43:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:44:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9f555cea-a02a-4149-b1ab-d71ba079cb63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4b259181-2c53-4732-a40c-1438a2595aef</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e163d820-2424-4cc4-ab19-1f7d4c7de3aa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9976efd5-8ea8-4d33-8b2f-2217c4ff3e8d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23a7c647-59b8-4382-8967-11262aff5fb5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ff3b189-352c-48a4-ad09-66b276051f39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68b9c7d0-2ee6-44ce-a9a4-a6201ae7e364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7e8e9dfe-eeb7-4c02-a2eb-f35c981a6ded</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ad2b038b-9fca-401a-a3b9-83df5b85e453</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91742f61-3385-4e7f-a9ce-b5f08446b26d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:45:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d72a0a8e-e276-4f5c-8ea9-3656105040f9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c9089ba9-61b0-45fd-ad19-a58f27a09ecc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6e2d5c81-8c13-40ae-829d-a67e52719578</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:46:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>76a36de9-cff1-42de-b17a-2b8cacea98ae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>351ceb8c-03ac-4d1f-a4b9-b3398ada48b8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e4653614-2e9d-46e0-aa02-0b806a2f23ba</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a896836c-b14d-4e8d-aeda-f5d622aeb054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e1bbf913-1aad-40eb-ba7d-d802dcf28bd6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63e60a22-f5b6-48e6-b11b-80e161e4b852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23e036ae-115e-4333-ba22-cbec5f0b11d8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>528211cd-8f7d-4db2-a1c1-7af6e585a7d0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>789940f7-7fd3-4e50-9ba9-816e31119497</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10abd4aa-d480-4899-88a6-10c9ca377b3c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6a8a25c9-6b1b-423d-b47f-6be711702f52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c2fb9ae8-d47c-42c9-a412-e5d85499cdc7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15a3dc2f-3c53-42b8-9269-11ebd7f8c190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:47:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>594c0a47-5690-443a-8447-3f035ff23b0a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9315587c-be1a-4332-ac6e-7bae88c2a68f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c1993e3c-17b8-4ed0-8c61-0055423f768b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b23009a9-2b26-4609-8ec6-4a626ddf9e5c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0596744e-b10e-4ca6-8993-466b19fceaaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c5bfd5d7-3b6e-4b8f-8c03-41cf42eff155</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ad9ff890-f32c-4e3e-81c3-5ec1794681f5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2fad4bfe-2c24-4a44-8150-ce42411a36a9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e7598251-d463-4c34-a4ea-b12743c2f0fa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186c5600-0637-4f53-98c4-21b8c4e73c17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31864286-1a23-47ea-b129-afbae92cf8b1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:48:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>35c07217-e7e2-4428-828b-9016bfbf407d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c49ce7e6-4b41-4cd6-9983-13f378db7709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159ef450-e6ff-4e61-865c-9d9b9e2501da</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>533057fe-f6c6-4fd4-8170-77e99f8704f8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fd622025-f170-458a-9f11-511a04a55491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b2784a9e-2cdf-48d6-a67a-6a5ac60e4c65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d810e2ec-a27e-4e22-a338-523cea24040a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67a6f518-d565-4448-a164-4a972d19b5d7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b3bfdd2f-428a-457e-84db-eafc6056f05e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ba41f0ac-ebac-496c-8927-bf29388cf416</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:49:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9cc626e3-eddd-453e-9fbb-79ca1c8b5c71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30667e92-f3e4-419a-b116-86059f10f83a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7a684b73-bbc7-4fe4-9c60-f33c7c0b2465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ea95740-a348-468e-b51f-821518fb29ad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0e42558e-028a-44d2-a443-fe5c80082260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84be4e4e-7fca-463b-8f9e-1c3654e318d2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b9ff4651-a1d3-414a-91c8-b17cb5dfeee0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9c29e5b0-d1dc-446b-ba41-98329fc65320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e32f9b94-29fa-4958-aaa4-9ac40a97af76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8595250b-4659-43c8-9be7-81a907bb5947</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:50:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f0f132e7-fc9e-4b60-9caf-e47537ced1a3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:51:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:51:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bd64e90d-6f30-48c6-91d7-0f93719392f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:51:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:51:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b2b085c4-941d-4aba-b16b-6bed4639190a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:51:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:51:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83aa3360-f8bc-4a54-a6e2-103821592bfd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38f3c4ec-80cc-4dbc-90dc-b67233fa2d9b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e349e4b3-5b71-4bdf-b42a-689ba385df32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ff0abd3-3d7d-44cb-8815-1a158f7e05fd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>042ed190-f802-4811-946e-c51c89d1059e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:52:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>55e61e58-2a3b-4457-b616-be56f25b13e8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b780ab90-cfc0-464f-b6fb-5ac72fe255cf</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a3665160-779e-4041-8f37-2d0a16a2a8e4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bfed1874-9ff9-42aa-b617-678ce951fdd8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5d70ffeb-32da-47a9-81bd-0b781baa10c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b5da9d9f-bbfc-4b4b-901f-b4260065231d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dd5be5e1-b1a5-4ee2-8814-cea087b3095c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4959edfa-a242-42d0-a052-1c5dcad5b7cc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e7c6b591-d974-43a1-b81b-418bd3866ce0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:53:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e4114e47-ebc2-4065-befd-0ebe7c152171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14b3f8a9-2248-4e32-b018-034f01d923af</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:18 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>496f4c5d-9e9e-491c-87e2-8f86316af24d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>07b8f0b6-be16-43fb-9605-7da3af12df76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f4e46cd2-1af2-48ca-8bf6-3dd947806490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3e3c8ba9-4b42-4dc0-abb6-48fdd4142976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e9144faa-032f-4ce3-b210-6f3fc852c9dd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:54:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1b8644eb-8ccd-47fe-aa88-20699468db09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25a3ece8-f825-431b-a383-ef02f91c894b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8f6d11f6-96fb-44c4-94c0-8a40107f4a7e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f7d72b79-4e52-432c-ab54-b36b90ab73bb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44a714ba-e549-4a3f-8c17-78329fa2ef8b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0290b055-b377-4662-b029-0fa0ac8dba2e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:47 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31bacd68-d2f2-4014-a85b-c7487c9cd425</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>daf16ef0-998f-4c12-96c6-6272a846bab2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:55:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a88b86a6-994f-48b2-be6a-cdef473b2be8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8b2df67f-d23c-445b-a817-d0353983636b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5ef612b1-2cb5-4a52-b6ab-fa21acbd3f24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0f2c80cb-45b1-48df-b4f4-b12d90bcf9a0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1f455586-3dd6-4f64-9ac2-e864cbcfb880</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2ad8a5dc-9d74-4554-a175-b8b28466aecd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>945a2dd2-8d4b-4271-bd70-f76d59dd79ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:56:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>94744e4d-db2b-44ba-8841-58ecd04e4b7c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f8c54f56-a17f-42c4-99e8-64333e6e066e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4bc8c2ba-e16b-424f-ad5a-4edd9325c56c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1f330cb3-2d76-418d-99fd-1e42f143658b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>868eb92c-b669-4054-b39b-50d803d7e936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2a7e913b-4f73-4399-9993-6068634267ae</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:57:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23f6b86a-940c-43d3-b329-eb5ff0892f29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99c6056a-e7cf-4292-9841-a25c5e9cc843</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:13 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11f07e69-92b6-43f0-963a-f73fb43434e1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26cec822-aacc-4c74-b48c-10aec4f5552e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b07e1b23-1689-4c58-948e-634a40e95e6e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2345cb8b-4a32-4bde-855f-213e30ac4b1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:58:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fd1e2be2-600c-4071-9a93-322a21956c71</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:59:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:59:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f90e2ce7-592e-4750-bd87-7d5ac7b93dd6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 9:59:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:00:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:00:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:00:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8ad8f425-f58d-45e2-9e9b-d4af02247fd8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:00:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5f293b77-2931-40d7-a772-5e31aacff52e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>beabb009-f1ff-4dc1-b114-870e38cac74d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24704720-ecc4-4817-b87a-34d9e8189a81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b68139bf-10c7-47d6-ab12-f3cbc75e6de2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2aadad18-d31b-4e85-aa27-cfb1f06c4090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:01:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1f69a25c-f4e7-4a13-aba7-aece4db31caa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2c68e450-f61a-4a37-abb0-0d377bbf9fce</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53f85b9b-9766-4fa6-8e09-43431e601f18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a5d21d10-cf3c-44d0-a9e1-599ee1f517a4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e3170ccb-57b1-40e6-a129-505437482390</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7c909fe5-43ad-4877-a8f9-caaf11ec4a5f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:02:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24a9251e-49cc-4c0e-a10f-7ad3599dac1a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c044dc93-920b-4c48-9050-9394de199168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1fd671ed-d688-4d70-8317-b8cd06af6930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0f591008-0c9f-4f37-ae9e-5374df215eaa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15fd5db0-7bac-43d8-a9d6-aed34233ac9a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:03:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86e05ef3-2aa4-4065-b3ea-05d1c4e24150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e01b381-01f2-4a99-8c9e-5dc395d3b2df</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9a0a17c3-81e4-4ad2-a7f3-ad8129ffad63</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5315ef51-0627-4cce-a09c-7876aaeedc3e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5d860c4d-ab61-4093-949e-9330188c18c3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4b598111-3c06-43a1-85db-f54fba567273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:04:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>492901a6-954b-4553-9d44-50b34a0e80e1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47313693-d8e9-49b5-ad0f-0c7a6e5754c7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99a81b53-4a81-4bc2-be76-6e02d8e58f95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17a8010d-5e53-4dd4-99b2-444c5e68a731</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f0616660-50ee-45a4-86fc-6bc69d6e6c6c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:05:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c40a235e-2692-4d0b-b864-23475e4bef00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:08 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6b28d154-85ad-41eb-9fba-5f710a2c83f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:26 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4e7c87b7-426d-463a-8520-661e7f1783f2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4d65c2f5-570c-444f-996f-81659f126eac</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>763216e3-31a9-424f-9b61-cc1be0101719</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:06:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e1b64849-8b85-4781-8907-c2b201f4673e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d70a92d0-eb4a-461e-8b2d-edeb9332e1d8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:21 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:28 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e1873804-10c6-4f2e-86ff-a47ab5cc188b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a6717f55-66e2-4c84-b0ae-492a06b18520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:07:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6a27dba7-1dc7-42f2-a7f7-24335f8b4576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dc09e0e4-ec4f-474c-b741-ecfd4baf4165</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91f7c8e0-3085-4f09-b573-3ee67ae14864</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>09e4aa7d-def9-4beb-896b-882087c87f1d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:39 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d4521d38-88d9-482c-9fdc-e2d28cc80d83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:08:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>598f85c4-151e-4c3b-afc4-95dc025ce7c4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8841e0b2-0314-45fb-b94d-346816eb57e5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f69e0143-08cd-4dba-99cd-81bfdf9b9b04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86836727-e1c0-451d-81a9-215b77b439ec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>afdd74d2-a940-4f75-afaf-72a4ebbf89f1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:09:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ce14d3f3-a3bd-4505-8d7e-def4198cc0b8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>acdb53dd-0993-4c49-8d5d-4f1c20712cc2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:29 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fdb182cb-6be9-4c2c-b5ed-c2aba1d77ba9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:36 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4ba5867a-37e8-4374-83a7-5a35d566f207</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:10:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75aa5fd8-d093-45f1-96b2-7c5832f3eec3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:03 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>635003b2-9cce-42fe-a116-9d7f620786f6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f6a6d221-1c4b-4de7-b298-27fe93d44f21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f674c2a7-acd1-4922-85dd-71b6c700b773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:44 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:51 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>120541bc-9e81-456b-a817-5b17cd5a178c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:11:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c99079a6-870c-433c-a35b-f9127d162ed9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:12 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:20 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fc6d0b15-b5dd-47be-8178-8971e6e24e53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:34 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>da9172d6-b738-4857-a29a-56a3cced863e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9bdd89b7-297b-4912-a864-6f8c60cfaf05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:12:55 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>c07ef410-84bb-48b2-80d4-01d8e0db35de</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:10 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d1661e11-36c5-46b4-ac04-fe1c88868f48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5005f782-db45-4cd4-8b1a-553cebc489c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b359a19e-c133-4903-b548-c5d7965a9190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:13:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:00 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28206e11-8d8f-4cab-8cfc-f7eb47f15e9d</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3df1f120-643e-4cf3-937b-d9297e17f260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bc1ad84f-a98e-4705-8834-3013a79c769b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>764f8a16-2137-441f-8d37-3d2a165e41fa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:52 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:14:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eb03345f-f640-4aca-ac6c-057f3266c1ab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73749c38-888e-413c-bbe0-a72fa0f7935e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b638a22f-e283-456c-a561-055a0d34bd53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:38 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:46 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2de18a31-402d-400e-85a0-a02bc6091871</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:15:54 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:02 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7fbad9b6-60ce-4e5b-9a6f-f5cf6b0d1971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b3cde19a-87aa-463e-b9d2-84f24fac2e65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>964c8abe-0f33-40be-888c-e939cadc1f03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>afd4cd47-1c8d-41a0-b92e-d5cb0a16c5cb</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:16:56 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:04 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0c8288b8-71f4-4f21-af7f-bd6c32d672d7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:11 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:19 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>afff5780-1088-436c-b8d1-7444dfc416f9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:27 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>d0ac7981-16f5-487a-a0e7-9e632de9883e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:43 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67bc2f8e-3073-4090-8085-acc15ab8ce9e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:17:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a97cd892-6966-4577-9d3a-b633f01261bc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:22 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f66eea21-a135-43f0-afdd-4c356b660ad5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:30 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:37 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>f8fe7038-94bb-4cd1-b1fc-b534a3ff6663</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:45 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:18:53 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8acc9315-9404-4338-913f-2555863e5ade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:01 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:09 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>820fae11-5818-483a-bd2e-dfac6e22222b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:17 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:25 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0b77ac4e-5151-4b34-a46e-4bbccf3982a5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:42 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9f76041f-6824-438e-b789-9f401e0779c5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:50 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:19:59 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ae88ec6a-e0fc-49fb-96a3-8a4cd8b56522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:16 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>805fc0ac-65b3-41a9-ac73-0b50256b9c57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:32 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5feadb7b-c4d9-4a8b-88a8-1a98c73062bc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:41 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5e3b5250-0140-4a82-9a0c-f5d33122c863</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:20:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:06 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bc8b379f-e571-43b4-83f4-1e9afcf54895</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a2940dff-8469-472b-974c-b803ce907a04</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9ae71d88-2e1c-4ae9-bec3-d311e73c5524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:48 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:21:57 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1f4d898d-6cb6-4dae-a149-d7eb5daf99ec</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:05 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:14 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b8f621e3-c82c-4ae9-bdcd-fcc9115b9fe5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:23 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:31 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9e908735-7038-4156-b1da-60fb0f95a2c2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:40 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:49 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fa8ee1bf-6e26-4b78-ac11-03d256cc730b</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:22:58 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:23:07 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93af6ade-3fde-4613-be88-fffd91d0366e</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:23:15 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:23:24 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86613470-fb4c-4aee-83ac-81eb921c302c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 March 31 10:23:33 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3106,6 +5398,5682 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
+    <x:row r="182">
+      <x:c r="A182" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="B182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C182" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183">
+      <x:c r="A183" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="B183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C183" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="184">
+      <x:c r="A184" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="B184" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="C184" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="185">
+      <x:c r="A185" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B185" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="C185" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186">
+      <x:c r="A186" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B186" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C186" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="187">
+      <x:c r="A187" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="B187" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="C187" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="188">
+      <x:c r="A188" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="B188" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="C188" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="189">
+      <x:c r="A189" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B189" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C189" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190">
+      <x:c r="A190" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="B190" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C190" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191">
+      <x:c r="A191" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="B191" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C191" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192">
+      <x:c r="A192" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="B192" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C192" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193">
+      <x:c r="A193" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="B193" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="C193" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194">
+      <x:c r="A194" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B194" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C194" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="195">
+      <x:c r="A195" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="B195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C195" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196">
+      <x:c r="A196" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B196" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C196" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197">
+      <x:c r="A197" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="B197" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="C197" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198">
+      <x:c r="A198" t="s">
+        <x:v>259</x:v>
+      </x:c>
+      <x:c r="B198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C198" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199">
+      <x:c r="A199" t="s">
+        <x:v>260</x:v>
+      </x:c>
+      <x:c r="B199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C199" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="200">
+      <x:c r="A200" t="s">
+        <x:v>261</x:v>
+      </x:c>
+      <x:c r="B200" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C200" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="201">
+      <x:c r="A201" t="s">
+        <x:v>263</x:v>
+      </x:c>
+      <x:c r="B201" t="s">
+        <x:v>262</x:v>
+      </x:c>
+      <x:c r="C201" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="202">
+      <x:c r="A202" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C202" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="203">
+      <x:c r="A203" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C203" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="204">
+      <x:c r="A204" t="s">
+        <x:v>266</x:v>
+      </x:c>
+      <x:c r="B204" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C204" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="205">
+      <x:c r="A205" t="s">
+        <x:v>268</x:v>
+      </x:c>
+      <x:c r="B205" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C205" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="206">
+      <x:c r="A206" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C206" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207">
+      <x:c r="A207" t="s">
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C207" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="208">
+      <x:c r="A208" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B208" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C208" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="209">
+      <x:c r="A209" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="B209" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C209" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="210">
+      <x:c r="A210" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="B210" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="C210" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211">
+      <x:c r="A211" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C211" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212">
+      <x:c r="A212" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="B212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C212" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213">
+      <x:c r="A213" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="B213" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C213" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214">
+      <x:c r="A214" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="B214" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="C214" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215">
+      <x:c r="A215" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="B215" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C215" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="216">
+      <x:c r="A216" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="B216" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C216" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217">
+      <x:c r="A217" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="B217" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C217" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="218">
+      <x:c r="A218" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="B218" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="C218" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="219">
+      <x:c r="A219" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="B219" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C219" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220">
+      <x:c r="A220" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="B220" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C220" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="221">
+      <x:c r="A221" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="B221" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C221" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222">
+      <x:c r="A222" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="B222" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="C222" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223">
+      <x:c r="A223" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="B223" t="s">
+        <x:v>292</x:v>
+      </x:c>
+      <x:c r="C223" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224">
+      <x:c r="A224" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="B224" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="C224" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225">
+      <x:c r="A225" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="B225" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C225" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226">
+      <x:c r="A226" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="B226" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="C226" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227">
+      <x:c r="A227" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="B227" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C227" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228">
+      <x:c r="A228" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="B228" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C228" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229">
+      <x:c r="A229" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="B229" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C229" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="230">
+      <x:c r="A230" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="B230" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C230" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="231">
+      <x:c r="A231" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B231" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C231" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="232">
+      <x:c r="A232" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="B232" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="C232" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="233">
+      <x:c r="A233" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="B233" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C233" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234">
+      <x:c r="A234" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="B234" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="C234" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="235">
+      <x:c r="A235" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="B235" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C235" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="236">
+      <x:c r="A236" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="B236" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C236" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="237">
+      <x:c r="A237" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B237" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C237" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="238">
+      <x:c r="A238" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B238" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C238" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="239">
+      <x:c r="A239" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B239" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C239" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="240">
+      <x:c r="A240" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B240" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C240" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="241">
+      <x:c r="A241" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B241" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C241" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="242">
+      <x:c r="A242" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="B242" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C242" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="243">
+      <x:c r="A243" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B243" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C243" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="244">
+      <x:c r="A244" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="B244" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="C244" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="245">
+      <x:c r="A245" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="B245" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C245" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="246">
+      <x:c r="A246" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B246" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="C246" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="247">
+      <x:c r="A247" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="B247" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C247" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="248">
+      <x:c r="A248" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B248" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="C248" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="249">
+      <x:c r="A249" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B249" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C249" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="250">
+      <x:c r="A250" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="B250" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C250" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="251">
+      <x:c r="A251" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B251" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="C251" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="252">
+      <x:c r="A252" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="B252" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="C252" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="253">
+      <x:c r="A253" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B253" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C253" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="254">
+      <x:c r="A254" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B254" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="C254" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="255">
+      <x:c r="A255" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="B255" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C255" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="256">
+      <x:c r="A256" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B256" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C256" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="257">
+      <x:c r="A257" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B257" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C257" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="258">
+      <x:c r="A258" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B258" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C258" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="259">
+      <x:c r="A259" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="B259" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C259" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="260">
+      <x:c r="A260" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B260" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="C260" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="261">
+      <x:c r="A261" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B261" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="C261" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="262">
+      <x:c r="A262" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B262" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C262" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="263">
+      <x:c r="A263" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B263" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C263" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="264">
+      <x:c r="A264" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B264" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C264" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="265">
+      <x:c r="A265" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B265" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="C265" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="266">
+      <x:c r="A266" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B266" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C266" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="267">
+      <x:c r="A267" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B267" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C267" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="268">
+      <x:c r="A268" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="B268" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="C268" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="269">
+      <x:c r="A269" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B269" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C269" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="270">
+      <x:c r="A270" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B270" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C270" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271">
+      <x:c r="A271" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B271" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="C271" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="272">
+      <x:c r="A272" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B272" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="C272" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="273">
+      <x:c r="A273" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B273" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C273" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="274">
+      <x:c r="A274" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="B274" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C274" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275">
+      <x:c r="A275" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B275" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C275" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="276">
+      <x:c r="A276" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B276" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C276" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="277">
+      <x:c r="A277" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="B277" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C277" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="278">
+      <x:c r="A278" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B278" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C278" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="279">
+      <x:c r="A279" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="B279" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="C279" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="280">
+      <x:c r="A280" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B280" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="C280" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="281">
+      <x:c r="A281" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B281" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C281" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="282">
+      <x:c r="A282" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B282" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C282" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="283">
+      <x:c r="A283" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B283" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C283" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284">
+      <x:c r="A284" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="B284" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="C284" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="285">
+      <x:c r="A285" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="B285" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="C285" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286">
+      <x:c r="A286" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B286" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="C286" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="287">
+      <x:c r="A287" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="B287" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C287" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288">
+      <x:c r="A288" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B288" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="C288" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289">
+      <x:c r="A289" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B289" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C289" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290">
+      <x:c r="A290" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="B290" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C290" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291">
+      <x:c r="A291" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B291" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C291" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292">
+      <x:c r="A292" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B292" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C292" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293">
+      <x:c r="A293" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="B293" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C293" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294">
+      <x:c r="A294" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="B294" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="C294" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295">
+      <x:c r="A295" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B295" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="C295" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296">
+      <x:c r="A296" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="B296" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="C296" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297">
+      <x:c r="A297" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B297" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="C297" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298">
+      <x:c r="A298" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="B298" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="C298" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299">
+      <x:c r="A299" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B299" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="C299" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300">
+      <x:c r="A300" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="B300" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="C300" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301">
+      <x:c r="A301" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B301" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="C301" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302">
+      <x:c r="A302" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="B302" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C302" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303">
+      <x:c r="A303" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B303" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="C303" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304">
+      <x:c r="A304" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B304" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C304" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305">
+      <x:c r="A305" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B305" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C305" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306">
+      <x:c r="A306" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="B306" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="C306" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307">
+      <x:c r="A307" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B307" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="C307" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308">
+      <x:c r="A308" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="B308" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="C308" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309">
+      <x:c r="A309" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B309" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="C309" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310">
+      <x:c r="A310" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B310" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="C310" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311">
+      <x:c r="A311" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B311" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="C311" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="312">
+      <x:c r="A312" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B312" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="C312" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="313">
+      <x:c r="A313" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="B313" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="C313" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314">
+      <x:c r="A314" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B314" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="C314" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315">
+      <x:c r="A315" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="B315" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="C315" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="316">
+      <x:c r="A316" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B316" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="C316" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="317">
+      <x:c r="A317" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="B317" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="C317" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318">
+      <x:c r="A318" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="B318" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="C318" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319">
+      <x:c r="A319" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="B319" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="C319" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320">
+      <x:c r="A320" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B320" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="C320" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="321">
+      <x:c r="A321" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="B321" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="C321" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322">
+      <x:c r="A322" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B322" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="C322" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323">
+      <x:c r="A323" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="B323" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="C323" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="324">
+      <x:c r="A324" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B324" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="C324" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="325">
+      <x:c r="A325" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="B325" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="C325" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326">
+      <x:c r="A326" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B326" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="C326" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327">
+      <x:c r="A327" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="B327" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="C327" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328">
+      <x:c r="A328" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B328" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="C328" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329">
+      <x:c r="A329" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="B329" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="C329" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330">
+      <x:c r="A330" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="B330" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="C330" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331">
+      <x:c r="A331" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="B331" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="C331" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332">
+      <x:c r="A332" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B332" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="C332" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333">
+      <x:c r="A333" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="B333" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="C333" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334">
+      <x:c r="A334" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="B334" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C334" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335">
+      <x:c r="A335" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="B335" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C335" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336">
+      <x:c r="A336" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B336" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="C336" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337">
+      <x:c r="A337" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="B337" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="C337" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="338">
+      <x:c r="A338" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B338" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C338" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="339">
+      <x:c r="A339" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="B339" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C339" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="340">
+      <x:c r="A340" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="B340" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="C340" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="341">
+      <x:c r="A341" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="B341" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="C341" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="342">
+      <x:c r="A342" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="B342" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="C342" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343">
+      <x:c r="A343" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="B343" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="C343" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344">
+      <x:c r="A344" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="B344" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="C344" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="345">
+      <x:c r="A345" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="B345" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="C345" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346">
+      <x:c r="A346" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="B346" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="C346" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="347">
+      <x:c r="A347" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="B347" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="C347" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348">
+      <x:c r="A348" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="B348" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="C348" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349">
+      <x:c r="A349" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="B349" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="C349" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="350">
+      <x:c r="A350" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="B350" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C350" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="351">
+      <x:c r="A351" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="B351" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C351" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="352">
+      <x:c r="A352" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="B352" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="C352" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="353">
+      <x:c r="A353" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="B353" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="C353" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="354">
+      <x:c r="A354" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="B354" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C354" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="355">
+      <x:c r="A355" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="B355" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="C355" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="356">
+      <x:c r="A356" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="B356" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="C356" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="357">
+      <x:c r="A357" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="B357" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="C357" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358">
+      <x:c r="A358" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="B358" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="C358" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359">
+      <x:c r="A359" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="B359" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="C359" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="360">
+      <x:c r="A360" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="B360" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="C360" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="361">
+      <x:c r="A361" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="B361" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="C361" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="362">
+      <x:c r="A362" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="B362" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="C362" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="363">
+      <x:c r="A363" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="B363" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="C363" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="364">
+      <x:c r="A364" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="B364" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="C364" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="365">
+      <x:c r="A365" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="B365" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="C365" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="366">
+      <x:c r="A366" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="B366" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="C366" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="367">
+      <x:c r="A367" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="B367" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="C367" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="368">
+      <x:c r="A368" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="B368" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="C368" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="369">
+      <x:c r="A369" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="B369" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="C369" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="370">
+      <x:c r="A370" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="B370" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="C370" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="371">
+      <x:c r="A371" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="B371" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="C371" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="372">
+      <x:c r="A372" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="B372" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="C372" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="373">
+      <x:c r="A373" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="B373" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="C373" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="374">
+      <x:c r="A374" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="B374" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="C374" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="375">
+      <x:c r="A375" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="B375" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="C375" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="376">
+      <x:c r="A376" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="B376" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="C376" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="377">
+      <x:c r="A377" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="B377" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="C377" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="378">
+      <x:c r="A378" t="s">
+        <x:v>519</x:v>
+      </x:c>
+      <x:c r="B378" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="C378" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="379">
+      <x:c r="A379" t="s">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="B379" t="s">
+        <x:v>520</x:v>
+      </x:c>
+      <x:c r="C379" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="380">
+      <x:c r="A380" t="s">
+        <x:v>522</x:v>
+      </x:c>
+      <x:c r="B380" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="C380" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="381">
+      <x:c r="A381" t="s">
+        <x:v>524</x:v>
+      </x:c>
+      <x:c r="B381" t="s">
+        <x:v>523</x:v>
+      </x:c>
+      <x:c r="C381" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="382">
+      <x:c r="A382" t="s">
+        <x:v>525</x:v>
+      </x:c>
+      <x:c r="B382" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="C382" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="383">
+      <x:c r="A383" t="s">
+        <x:v>527</x:v>
+      </x:c>
+      <x:c r="B383" t="s">
+        <x:v>526</x:v>
+      </x:c>
+      <x:c r="C383" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="384">
+      <x:c r="A384" t="s">
+        <x:v>528</x:v>
+      </x:c>
+      <x:c r="B384" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="C384" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="385">
+      <x:c r="A385" t="s">
+        <x:v>530</x:v>
+      </x:c>
+      <x:c r="B385" t="s">
+        <x:v>529</x:v>
+      </x:c>
+      <x:c r="C385" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="386">
+      <x:c r="A386" t="s">
+        <x:v>531</x:v>
+      </x:c>
+      <x:c r="B386" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="C386" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="387">
+      <x:c r="A387" t="s">
+        <x:v>533</x:v>
+      </x:c>
+      <x:c r="B387" t="s">
+        <x:v>532</x:v>
+      </x:c>
+      <x:c r="C387" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="388">
+      <x:c r="A388" t="s">
+        <x:v>534</x:v>
+      </x:c>
+      <x:c r="B388" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="C388" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="389">
+      <x:c r="A389" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="B389" t="s">
+        <x:v>535</x:v>
+      </x:c>
+      <x:c r="C389" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="390">
+      <x:c r="A390" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="B390" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="C390" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="391">
+      <x:c r="A391" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="B391" t="s">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="C391" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="392">
+      <x:c r="A392" t="s">
+        <x:v>540</x:v>
+      </x:c>
+      <x:c r="B392" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="C392" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="393">
+      <x:c r="A393" t="s">
+        <x:v>542</x:v>
+      </x:c>
+      <x:c r="B393" t="s">
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="C393" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="394">
+      <x:c r="A394" t="s">
+        <x:v>543</x:v>
+      </x:c>
+      <x:c r="B394" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C394" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="395">
+      <x:c r="A395" t="s">
+        <x:v>544</x:v>
+      </x:c>
+      <x:c r="B395" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C395" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="396">
+      <x:c r="A396" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="B396" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="C396" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="397">
+      <x:c r="A397" t="s">
+        <x:v>547</x:v>
+      </x:c>
+      <x:c r="B397" t="s">
+        <x:v>546</x:v>
+      </x:c>
+      <x:c r="C397" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="398">
+      <x:c r="A398" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="B398" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="C398" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="399">
+      <x:c r="A399" t="s">
+        <x:v>550</x:v>
+      </x:c>
+      <x:c r="B399" t="s">
+        <x:v>549</x:v>
+      </x:c>
+      <x:c r="C399" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="400">
+      <x:c r="A400" t="s">
+        <x:v>551</x:v>
+      </x:c>
+      <x:c r="B400" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="C400" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="401">
+      <x:c r="A401" t="s">
+        <x:v>553</x:v>
+      </x:c>
+      <x:c r="B401" t="s">
+        <x:v>552</x:v>
+      </x:c>
+      <x:c r="C401" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="402">
+      <x:c r="A402" t="s">
+        <x:v>554</x:v>
+      </x:c>
+      <x:c r="B402" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="C402" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="403">
+      <x:c r="A403" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B403" t="s">
+        <x:v>555</x:v>
+      </x:c>
+      <x:c r="C403" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="404">
+      <x:c r="A404" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="B404" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="C404" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="405">
+      <x:c r="A405" t="s">
+        <x:v>559</x:v>
+      </x:c>
+      <x:c r="B405" t="s">
+        <x:v>558</x:v>
+      </x:c>
+      <x:c r="C405" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="406">
+      <x:c r="A406" t="s">
+        <x:v>560</x:v>
+      </x:c>
+      <x:c r="B406" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="C406" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="407">
+      <x:c r="A407" t="s">
+        <x:v>562</x:v>
+      </x:c>
+      <x:c r="B407" t="s">
+        <x:v>561</x:v>
+      </x:c>
+      <x:c r="C407" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="408">
+      <x:c r="A408" t="s">
+        <x:v>563</x:v>
+      </x:c>
+      <x:c r="B408" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="C408" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="409">
+      <x:c r="A409" t="s">
+        <x:v>565</x:v>
+      </x:c>
+      <x:c r="B409" t="s">
+        <x:v>564</x:v>
+      </x:c>
+      <x:c r="C409" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="410">
+      <x:c r="A410" t="s">
+        <x:v>566</x:v>
+      </x:c>
+      <x:c r="B410" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="C410" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="411">
+      <x:c r="A411" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B411" t="s">
+        <x:v>567</x:v>
+      </x:c>
+      <x:c r="C411" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="412">
+      <x:c r="A412" t="s">
+        <x:v>569</x:v>
+      </x:c>
+      <x:c r="B412" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="C412" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="413">
+      <x:c r="A413" t="s">
+        <x:v>571</x:v>
+      </x:c>
+      <x:c r="B413" t="s">
+        <x:v>570</x:v>
+      </x:c>
+      <x:c r="C413" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="414">
+      <x:c r="A414" t="s">
+        <x:v>572</x:v>
+      </x:c>
+      <x:c r="B414" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="C414" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="415">
+      <x:c r="A415" t="s">
+        <x:v>574</x:v>
+      </x:c>
+      <x:c r="B415" t="s">
+        <x:v>573</x:v>
+      </x:c>
+      <x:c r="C415" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="416">
+      <x:c r="A416" t="s">
+        <x:v>575</x:v>
+      </x:c>
+      <x:c r="B416" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="C416" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="417">
+      <x:c r="A417" t="s">
+        <x:v>577</x:v>
+      </x:c>
+      <x:c r="B417" t="s">
+        <x:v>576</x:v>
+      </x:c>
+      <x:c r="C417" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="418">
+      <x:c r="A418" t="s">
+        <x:v>578</x:v>
+      </x:c>
+      <x:c r="B418" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="C418" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="419">
+      <x:c r="A419" t="s">
+        <x:v>580</x:v>
+      </x:c>
+      <x:c r="B419" t="s">
+        <x:v>579</x:v>
+      </x:c>
+      <x:c r="C419" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="420">
+      <x:c r="A420" t="s">
+        <x:v>581</x:v>
+      </x:c>
+      <x:c r="B420" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="C420" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="421">
+      <x:c r="A421" t="s">
+        <x:v>583</x:v>
+      </x:c>
+      <x:c r="B421" t="s">
+        <x:v>582</x:v>
+      </x:c>
+      <x:c r="C421" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="422">
+      <x:c r="A422" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="B422" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="C422" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="423">
+      <x:c r="A423" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="B423" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="C423" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="424">
+      <x:c r="A424" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="B424" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="C424" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="425">
+      <x:c r="A425" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="B425" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="C425" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="426">
+      <x:c r="A426" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="B426" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="C426" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="427">
+      <x:c r="A427" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="B427" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="C427" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="428">
+      <x:c r="A428" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="B428" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="C428" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="429">
+      <x:c r="A429" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="B429" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="C429" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="430">
+      <x:c r="A430" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="B430" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="C430" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="431">
+      <x:c r="A431" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="B431" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="C431" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="432">
+      <x:c r="A432" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="B432" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="C432" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="433">
+      <x:c r="A433" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="B433" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="C433" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="434">
+      <x:c r="A434" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="B434" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="C434" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="435">
+      <x:c r="A435" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="B435" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="C435" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="436">
+      <x:c r="A436" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="B436" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="C436" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="437">
+      <x:c r="A437" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="B437" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="C437" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="438">
+      <x:c r="A438" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="B438" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="C438" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="439">
+      <x:c r="A439" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="B439" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="C439" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="440">
+      <x:c r="A440" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="B440" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="C440" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="441">
+      <x:c r="A441" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="B441" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="C441" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="442">
+      <x:c r="A442" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="B442" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="C442" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="443">
+      <x:c r="A443" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="B443" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="C443" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="444">
+      <x:c r="A444" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="B444" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="C444" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="445">
+      <x:c r="A445" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B445" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="C445" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="446">
+      <x:c r="A446" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="B446" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="C446" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="447">
+      <x:c r="A447" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="B447" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="C447" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="448">
+      <x:c r="A448" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="B448" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="C448" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="449">
+      <x:c r="A449" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B449" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="C449" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="450">
+      <x:c r="A450" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="B450" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="C450" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="451">
+      <x:c r="A451" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="B451" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="C451" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="452">
+      <x:c r="A452" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="B452" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="C452" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="453">
+      <x:c r="A453" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="B453" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="C453" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="454">
+      <x:c r="A454" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B454" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="C454" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="455">
+      <x:c r="A455" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="B455" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="C455" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="456">
+      <x:c r="A456" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="B456" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="C456" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="457">
+      <x:c r="A457" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="B457" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="C457" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="458">
+      <x:c r="A458" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="B458" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="C458" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="459">
+      <x:c r="A459" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="B459" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="C459" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="460">
+      <x:c r="A460" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="B460" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="C460" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="461">
+      <x:c r="A461" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="B461" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="C461" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="462">
+      <x:c r="A462" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="B462" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="C462" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="463">
+      <x:c r="A463" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="B463" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="C463" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="464">
+      <x:c r="A464" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="B464" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="C464" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="465">
+      <x:c r="A465" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="B465" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="C465" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="466">
+      <x:c r="A466" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="B466" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="C466" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="467">
+      <x:c r="A467" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="B467" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="C467" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="468">
+      <x:c r="A468" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="B468" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="C468" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="469">
+      <x:c r="A469" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="B469" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="C469" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="470">
+      <x:c r="A470" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="B470" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="C470" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="471">
+      <x:c r="A471" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="B471" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="C471" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="472">
+      <x:c r="A472" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="B472" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="C472" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="473">
+      <x:c r="A473" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="B473" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="C473" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="474">
+      <x:c r="A474" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="B474" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="C474" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="475">
+      <x:c r="A475" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="B475" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="C475" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="476">
+      <x:c r="A476" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="B476" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="C476" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="477">
+      <x:c r="A477" t="s">
+        <x:v>667</x:v>
+      </x:c>
+      <x:c r="B477" t="s">
+        <x:v>666</x:v>
+      </x:c>
+      <x:c r="C477" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="478">
+      <x:c r="A478" t="s">
+        <x:v>668</x:v>
+      </x:c>
+      <x:c r="B478" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="C478" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="479">
+      <x:c r="A479" t="s">
+        <x:v>670</x:v>
+      </x:c>
+      <x:c r="B479" t="s">
+        <x:v>669</x:v>
+      </x:c>
+      <x:c r="C479" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="480">
+      <x:c r="A480" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="B480" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="C480" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="481">
+      <x:c r="A481" t="s">
+        <x:v>673</x:v>
+      </x:c>
+      <x:c r="B481" t="s">
+        <x:v>672</x:v>
+      </x:c>
+      <x:c r="C481" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="482">
+      <x:c r="A482" t="s">
+        <x:v>674</x:v>
+      </x:c>
+      <x:c r="B482" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="C482" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="483">
+      <x:c r="A483" t="s">
+        <x:v>676</x:v>
+      </x:c>
+      <x:c r="B483" t="s">
+        <x:v>675</x:v>
+      </x:c>
+      <x:c r="C483" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="484">
+      <x:c r="A484" t="s">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="B484" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="C484" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="485">
+      <x:c r="A485" t="s">
+        <x:v>679</x:v>
+      </x:c>
+      <x:c r="B485" t="s">
+        <x:v>678</x:v>
+      </x:c>
+      <x:c r="C485" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="486">
+      <x:c r="A486" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="B486" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="C486" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="487">
+      <x:c r="A487" t="s">
+        <x:v>682</x:v>
+      </x:c>
+      <x:c r="B487" t="s">
+        <x:v>681</x:v>
+      </x:c>
+      <x:c r="C487" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="488">
+      <x:c r="A488" t="s">
+        <x:v>683</x:v>
+      </x:c>
+      <x:c r="B488" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="C488" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="489">
+      <x:c r="A489" t="s">
+        <x:v>685</x:v>
+      </x:c>
+      <x:c r="B489" t="s">
+        <x:v>684</x:v>
+      </x:c>
+      <x:c r="C489" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="490">
+      <x:c r="A490" t="s">
+        <x:v>686</x:v>
+      </x:c>
+      <x:c r="B490" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="C490" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="491">
+      <x:c r="A491" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="B491" t="s">
+        <x:v>687</x:v>
+      </x:c>
+      <x:c r="C491" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="492">
+      <x:c r="A492" t="s">
+        <x:v>689</x:v>
+      </x:c>
+      <x:c r="B492" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="C492" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="493">
+      <x:c r="A493" t="s">
+        <x:v>691</x:v>
+      </x:c>
+      <x:c r="B493" t="s">
+        <x:v>690</x:v>
+      </x:c>
+      <x:c r="C493" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="494">
+      <x:c r="A494" t="s">
+        <x:v>692</x:v>
+      </x:c>
+      <x:c r="B494" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="C494" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="495">
+      <x:c r="A495" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="B495" t="s">
+        <x:v>693</x:v>
+      </x:c>
+      <x:c r="C495" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="496">
+      <x:c r="A496" t="s">
+        <x:v>695</x:v>
+      </x:c>
+      <x:c r="B496" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C496" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="497">
+      <x:c r="A497" t="s">
+        <x:v>696</x:v>
+      </x:c>
+      <x:c r="B497" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C497" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="498">
+      <x:c r="A498" t="s">
+        <x:v>697</x:v>
+      </x:c>
+      <x:c r="B498" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="C498" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499">
+      <x:c r="A499" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B499" t="s">
+        <x:v>698</x:v>
+      </x:c>
+      <x:c r="C499" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500">
+      <x:c r="A500" t="s">
+        <x:v>700</x:v>
+      </x:c>
+      <x:c r="B500" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="C500" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501">
+      <x:c r="A501" t="s">
+        <x:v>702</x:v>
+      </x:c>
+      <x:c r="B501" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="C501" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502">
+      <x:c r="A502" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B502" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="C502" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503">
+      <x:c r="A503" t="s">
+        <x:v>705</x:v>
+      </x:c>
+      <x:c r="B503" t="s">
+        <x:v>704</x:v>
+      </x:c>
+      <x:c r="C503" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504">
+      <x:c r="A504" t="s">
+        <x:v>706</x:v>
+      </x:c>
+      <x:c r="B504" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="C504" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505">
+      <x:c r="A505" t="s">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="B505" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="C505" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506">
+      <x:c r="A506" t="s">
+        <x:v>709</x:v>
+      </x:c>
+      <x:c r="B506" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="C506" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507">
+      <x:c r="A507" t="s">
+        <x:v>711</x:v>
+      </x:c>
+      <x:c r="B507" t="s">
+        <x:v>710</x:v>
+      </x:c>
+      <x:c r="C507" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508">
+      <x:c r="A508" t="s">
+        <x:v>712</x:v>
+      </x:c>
+      <x:c r="B508" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="C508" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509">
+      <x:c r="A509" t="s">
+        <x:v>714</x:v>
+      </x:c>
+      <x:c r="B509" t="s">
+        <x:v>713</x:v>
+      </x:c>
+      <x:c r="C509" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="510">
+      <x:c r="A510" t="s">
+        <x:v>715</x:v>
+      </x:c>
+      <x:c r="B510" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="C510" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="511">
+      <x:c r="A511" t="s">
+        <x:v>717</x:v>
+      </x:c>
+      <x:c r="B511" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="C511" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512">
+      <x:c r="A512" t="s">
+        <x:v>718</x:v>
+      </x:c>
+      <x:c r="B512" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="C512" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513">
+      <x:c r="A513" t="s">
+        <x:v>720</x:v>
+      </x:c>
+      <x:c r="B513" t="s">
+        <x:v>719</x:v>
+      </x:c>
+      <x:c r="C513" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514">
+      <x:c r="A514" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="B514" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="C514" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515">
+      <x:c r="A515" t="s">
+        <x:v>723</x:v>
+      </x:c>
+      <x:c r="B515" t="s">
+        <x:v>722</x:v>
+      </x:c>
+      <x:c r="C515" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="516">
+      <x:c r="A516" t="s">
+        <x:v>724</x:v>
+      </x:c>
+      <x:c r="B516" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="C516" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="517">
+      <x:c r="A517" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B517" t="s">
+        <x:v>725</x:v>
+      </x:c>
+      <x:c r="C517" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="518">
+      <x:c r="A518" t="s">
+        <x:v>727</x:v>
+      </x:c>
+      <x:c r="B518" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="C518" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="519">
+      <x:c r="A519" t="s">
+        <x:v>729</x:v>
+      </x:c>
+      <x:c r="B519" t="s">
+        <x:v>728</x:v>
+      </x:c>
+      <x:c r="C519" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="520">
+      <x:c r="A520" t="s">
+        <x:v>730</x:v>
+      </x:c>
+      <x:c r="B520" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="C520" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="521">
+      <x:c r="A521" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="B521" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="C521" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="522">
+      <x:c r="A522" t="s">
+        <x:v>733</x:v>
+      </x:c>
+      <x:c r="B522" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="C522" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="523">
+      <x:c r="A523" t="s">
+        <x:v>735</x:v>
+      </x:c>
+      <x:c r="B523" t="s">
+        <x:v>734</x:v>
+      </x:c>
+      <x:c r="C523" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="524">
+      <x:c r="A524" t="s">
+        <x:v>736</x:v>
+      </x:c>
+      <x:c r="B524" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="C524" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="525">
+      <x:c r="A525" t="s">
+        <x:v>738</x:v>
+      </x:c>
+      <x:c r="B525" t="s">
+        <x:v>737</x:v>
+      </x:c>
+      <x:c r="C525" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="526">
+      <x:c r="A526" t="s">
+        <x:v>739</x:v>
+      </x:c>
+      <x:c r="B526" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="C526" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="527">
+      <x:c r="A527" t="s">
+        <x:v>741</x:v>
+      </x:c>
+      <x:c r="B527" t="s">
+        <x:v>740</x:v>
+      </x:c>
+      <x:c r="C527" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="528">
+      <x:c r="A528" t="s">
+        <x:v>742</x:v>
+      </x:c>
+      <x:c r="B528" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="C528" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="529">
+      <x:c r="A529" t="s">
+        <x:v>744</x:v>
+      </x:c>
+      <x:c r="B529" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="C529" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="530">
+      <x:c r="A530" t="s">
+        <x:v>745</x:v>
+      </x:c>
+      <x:c r="B530" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="C530" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="531">
+      <x:c r="A531" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="B531" t="s">
+        <x:v>746</x:v>
+      </x:c>
+      <x:c r="C531" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="532">
+      <x:c r="A532" t="s">
+        <x:v>748</x:v>
+      </x:c>
+      <x:c r="B532" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="C532" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="533">
+      <x:c r="A533" t="s">
+        <x:v>750</x:v>
+      </x:c>
+      <x:c r="B533" t="s">
+        <x:v>749</x:v>
+      </x:c>
+      <x:c r="C533" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="534">
+      <x:c r="A534" t="s">
+        <x:v>751</x:v>
+      </x:c>
+      <x:c r="B534" t="s">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="C534" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="535">
+      <x:c r="A535" t="s">
+        <x:v>753</x:v>
+      </x:c>
+      <x:c r="B535" t="s">
+        <x:v>752</x:v>
+      </x:c>
+      <x:c r="C535" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="536">
+      <x:c r="A536" t="s">
+        <x:v>754</x:v>
+      </x:c>
+      <x:c r="B536" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="C536" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="537">
+      <x:c r="A537" t="s">
+        <x:v>756</x:v>
+      </x:c>
+      <x:c r="B537" t="s">
+        <x:v>755</x:v>
+      </x:c>
+      <x:c r="C537" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="538">
+      <x:c r="A538" t="s">
+        <x:v>757</x:v>
+      </x:c>
+      <x:c r="B538" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="C538" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="539">
+      <x:c r="A539" t="s">
+        <x:v>759</x:v>
+      </x:c>
+      <x:c r="B539" t="s">
+        <x:v>758</x:v>
+      </x:c>
+      <x:c r="C539" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="540">
+      <x:c r="A540" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="B540" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="C540" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="541">
+      <x:c r="A541" t="s">
+        <x:v>762</x:v>
+      </x:c>
+      <x:c r="B541" t="s">
+        <x:v>761</x:v>
+      </x:c>
+      <x:c r="C541" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="542">
+      <x:c r="A542" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="B542" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="C542" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="543">
+      <x:c r="A543" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="B543" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="C543" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="544">
+      <x:c r="A544" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="B544" t="s">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="C544" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="545">
+      <x:c r="A545" t="s">
+        <x:v>768</x:v>
+      </x:c>
+      <x:c r="B545" t="s">
+        <x:v>767</x:v>
+      </x:c>
+      <x:c r="C545" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="546">
+      <x:c r="A546" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="B546" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C546" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="547">
+      <x:c r="A547" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="B547" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="C547" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="548">
+      <x:c r="A548" t="s">
+        <x:v>772</x:v>
+      </x:c>
+      <x:c r="B548" t="s">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="C548" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="549">
+      <x:c r="A549" t="s">
+        <x:v>774</x:v>
+      </x:c>
+      <x:c r="B549" t="s">
+        <x:v>773</x:v>
+      </x:c>
+      <x:c r="C549" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="550">
+      <x:c r="A550" t="s">
+        <x:v>775</x:v>
+      </x:c>
+      <x:c r="B550" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="C550" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="551">
+      <x:c r="A551" t="s">
+        <x:v>777</x:v>
+      </x:c>
+      <x:c r="B551" t="s">
+        <x:v>776</x:v>
+      </x:c>
+      <x:c r="C551" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="552">
+      <x:c r="A552" t="s">
+        <x:v>778</x:v>
+      </x:c>
+      <x:c r="B552" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="C552" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="553">
+      <x:c r="A553" t="s">
+        <x:v>780</x:v>
+      </x:c>
+      <x:c r="B553" t="s">
+        <x:v>779</x:v>
+      </x:c>
+      <x:c r="C553" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="554">
+      <x:c r="A554" t="s">
+        <x:v>781</x:v>
+      </x:c>
+      <x:c r="B554" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="C554" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="555">
+      <x:c r="A555" t="s">
+        <x:v>783</x:v>
+      </x:c>
+      <x:c r="B555" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="C555" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="556">
+      <x:c r="A556" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="B556" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C556" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="557">
+      <x:c r="A557" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="B557" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C557" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="558">
+      <x:c r="A558" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="B558" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="C558" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="559">
+      <x:c r="A559" t="s">
+        <x:v>789</x:v>
+      </x:c>
+      <x:c r="B559" t="s">
+        <x:v>788</x:v>
+      </x:c>
+      <x:c r="C559" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="560">
+      <x:c r="A560" t="s">
+        <x:v>790</x:v>
+      </x:c>
+      <x:c r="B560" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="C560" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="561">
+      <x:c r="A561" t="s">
+        <x:v>792</x:v>
+      </x:c>
+      <x:c r="B561" t="s">
+        <x:v>791</x:v>
+      </x:c>
+      <x:c r="C561" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="562">
+      <x:c r="A562" t="s">
+        <x:v>793</x:v>
+      </x:c>
+      <x:c r="B562" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="C562" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="563">
+      <x:c r="A563" t="s">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c r="B563" t="s">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c r="C563" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="564">
+      <x:c r="A564" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="B564" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="C564" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="565">
+      <x:c r="A565" t="s">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c r="B565" t="s">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c r="C565" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="566">
+      <x:c r="A566" t="s">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="B566" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="C566" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="567">
+      <x:c r="A567" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="B567" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="C567" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="568">
+      <x:c r="A568" t="s">
+        <x:v>802</x:v>
+      </x:c>
+      <x:c r="B568" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="C568" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="569">
+      <x:c r="A569" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="B569" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="C569" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="570">
+      <x:c r="A570" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="B570" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="C570" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="571">
+      <x:c r="A571" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="B571" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="C571" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="572">
+      <x:c r="A572" t="s">
+        <x:v>808</x:v>
+      </x:c>
+      <x:c r="B572" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C572" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="573">
+      <x:c r="A573" t="s">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="B573" t="s">
+        <x:v>809</x:v>
+      </x:c>
+      <x:c r="C573" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="574">
+      <x:c r="A574" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="B574" t="s">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c r="C574" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="575">
+      <x:c r="A575" t="s">
+        <x:v>813</x:v>
+      </x:c>
+      <x:c r="B575" t="s">
+        <x:v>812</x:v>
+      </x:c>
+      <x:c r="C575" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="576">
+      <x:c r="A576" t="s">
+        <x:v>814</x:v>
+      </x:c>
+      <x:c r="B576" t="s">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="C576" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="577">
+      <x:c r="A577" t="s">
+        <x:v>816</x:v>
+      </x:c>
+      <x:c r="B577" t="s">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="C577" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="578">
+      <x:c r="A578" t="s">
+        <x:v>817</x:v>
+      </x:c>
+      <x:c r="B578" t="s">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="C578" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="579">
+      <x:c r="A579" t="s">
+        <x:v>819</x:v>
+      </x:c>
+      <x:c r="B579" t="s">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="C579" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="580">
+      <x:c r="A580" t="s">
+        <x:v>820</x:v>
+      </x:c>
+      <x:c r="B580" t="s">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="C580" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="581">
+      <x:c r="A581" t="s">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c r="B581" t="s">
+        <x:v>821</x:v>
+      </x:c>
+      <x:c r="C581" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="582">
+      <x:c r="A582" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="B582" t="s">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c r="C582" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="583">
+      <x:c r="A583" t="s">
+        <x:v>825</x:v>
+      </x:c>
+      <x:c r="B583" t="s">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c r="C583" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="584">
+      <x:c r="A584" t="s">
+        <x:v>826</x:v>
+      </x:c>
+      <x:c r="B584" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C584" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="585">
+      <x:c r="A585" t="s">
+        <x:v>828</x:v>
+      </x:c>
+      <x:c r="B585" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C585" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="586">
+      <x:c r="A586" t="s">
+        <x:v>829</x:v>
+      </x:c>
+      <x:c r="B586" t="s">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c r="C586" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="587">
+      <x:c r="A587" t="s">
+        <x:v>831</x:v>
+      </x:c>
+      <x:c r="B587" t="s">
+        <x:v>830</x:v>
+      </x:c>
+      <x:c r="C587" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="588">
+      <x:c r="A588" t="s">
+        <x:v>832</x:v>
+      </x:c>
+      <x:c r="B588" t="s">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c r="C588" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="589">
+      <x:c r="A589" t="s">
+        <x:v>834</x:v>
+      </x:c>
+      <x:c r="B589" t="s">
+        <x:v>833</x:v>
+      </x:c>
+      <x:c r="C589" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="590">
+      <x:c r="A590" t="s">
+        <x:v>835</x:v>
+      </x:c>
+      <x:c r="B590" t="s">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="C590" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="591">
+      <x:c r="A591" t="s">
+        <x:v>837</x:v>
+      </x:c>
+      <x:c r="B591" t="s">
+        <x:v>836</x:v>
+      </x:c>
+      <x:c r="C591" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="592">
+      <x:c r="A592" t="s">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c r="B592" t="s">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c r="C592" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="593">
+      <x:c r="A593" t="s">
+        <x:v>840</x:v>
+      </x:c>
+      <x:c r="B593" t="s">
+        <x:v>839</x:v>
+      </x:c>
+      <x:c r="C593" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="594">
+      <x:c r="A594" t="s">
+        <x:v>841</x:v>
+      </x:c>
+      <x:c r="B594" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="C594" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="595">
+      <x:c r="A595" t="s">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="B595" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="C595" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="596">
+      <x:c r="A596" t="s">
+        <x:v>844</x:v>
+      </x:c>
+      <x:c r="B596" t="s">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c r="C596" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="597">
+      <x:c r="A597" t="s">
+        <x:v>846</x:v>
+      </x:c>
+      <x:c r="B597" t="s">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c r="C597" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="598">
+      <x:c r="A598" t="s">
+        <x:v>847</x:v>
+      </x:c>
+      <x:c r="B598" t="s">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c r="C598" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="599">
+      <x:c r="A599" t="s">
+        <x:v>849</x:v>
+      </x:c>
+      <x:c r="B599" t="s">
+        <x:v>848</x:v>
+      </x:c>
+      <x:c r="C599" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="600">
+      <x:c r="A600" t="s">
+        <x:v>850</x:v>
+      </x:c>
+      <x:c r="B600" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="C600" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="601">
+      <x:c r="A601" t="s">
+        <x:v>852</x:v>
+      </x:c>
+      <x:c r="B601" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="C601" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="602">
+      <x:c r="A602" t="s">
+        <x:v>853</x:v>
+      </x:c>
+      <x:c r="B602" t="s">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c r="C602" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="603">
+      <x:c r="A603" t="s">
+        <x:v>855</x:v>
+      </x:c>
+      <x:c r="B603" t="s">
+        <x:v>854</x:v>
+      </x:c>
+      <x:c r="C603" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="604">
+      <x:c r="A604" t="s">
+        <x:v>856</x:v>
+      </x:c>
+      <x:c r="B604" t="s">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c r="C604" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="605">
+      <x:c r="A605" t="s">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c r="B605" t="s">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c r="C605" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="606">
+      <x:c r="A606" t="s">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="B606" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="C606" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="607">
+      <x:c r="A607" t="s">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="B607" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="C607" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="608">
+      <x:c r="A608" t="s">
+        <x:v>862</x:v>
+      </x:c>
+      <x:c r="B608" t="s">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c r="C608" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="609">
+      <x:c r="A609" t="s">
+        <x:v>864</x:v>
+      </x:c>
+      <x:c r="B609" t="s">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c r="C609" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="610">
+      <x:c r="A610" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="B610" t="s">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c r="C610" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="611">
+      <x:c r="A611" t="s">
+        <x:v>867</x:v>
+      </x:c>
+      <x:c r="B611" t="s">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c r="C611" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="612">
+      <x:c r="A612" t="s">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c r="B612" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="C612" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="613">
+      <x:c r="A613" t="s">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="B613" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="C613" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="614">
+      <x:c r="A614" t="s">
+        <x:v>871</x:v>
+      </x:c>
+      <x:c r="B614" t="s">
+        <x:v>872</x:v>
+      </x:c>
+      <x:c r="C614" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="615">
+      <x:c r="A615" t="s">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="B615" t="s">
+        <x:v>872</x:v>
+      </x:c>
+      <x:c r="C615" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="616">
+      <x:c r="A616" t="s">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="B616" t="s">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c r="C616" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="617">
+      <x:c r="A617" t="s">
+        <x:v>876</x:v>
+      </x:c>
+      <x:c r="B617" t="s">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c r="C617" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="618">
+      <x:c r="A618" t="s">
+        <x:v>877</x:v>
+      </x:c>
+      <x:c r="B618" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="C618" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="619">
+      <x:c r="A619" t="s">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="B619" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="C619" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="620">
+      <x:c r="A620" t="s">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c r="B620" t="s">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c r="C620" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="621">
+      <x:c r="A621" t="s">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c r="B621" t="s">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c r="C621" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="622">
+      <x:c r="A622" t="s">
+        <x:v>883</x:v>
+      </x:c>
+      <x:c r="B622" t="s">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c r="C622" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="623">
+      <x:c r="A623" t="s">
+        <x:v>885</x:v>
+      </x:c>
+      <x:c r="B623" t="s">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c r="C623" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="624">
+      <x:c r="A624" t="s">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c r="B624" t="s">
+        <x:v>887</x:v>
+      </x:c>
+      <x:c r="C624" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="625">
+      <x:c r="A625" t="s">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="B625" t="s">
+        <x:v>887</x:v>
+      </x:c>
+      <x:c r="C625" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="626">
+      <x:c r="A626" t="s">
+        <x:v>889</x:v>
+      </x:c>
+      <x:c r="B626" t="s">
+        <x:v>890</x:v>
+      </x:c>
+      <x:c r="C626" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="627">
+      <x:c r="A627" t="s">
+        <x:v>891</x:v>
+      </x:c>
+      <x:c r="B627" t="s">
+        <x:v>890</x:v>
+      </x:c>
+      <x:c r="C627" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="628">
+      <x:c r="A628" t="s">
+        <x:v>892</x:v>
+      </x:c>
+      <x:c r="B628" t="s">
+        <x:v>893</x:v>
+      </x:c>
+      <x:c r="C628" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="629">
+      <x:c r="A629" t="s">
+        <x:v>894</x:v>
+      </x:c>
+      <x:c r="B629" t="s">
+        <x:v>893</x:v>
+      </x:c>
+      <x:c r="C629" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="630">
+      <x:c r="A630" t="s">
+        <x:v>895</x:v>
+      </x:c>
+      <x:c r="B630" t="s">
+        <x:v>896</x:v>
+      </x:c>
+      <x:c r="C630" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="631">
+      <x:c r="A631" t="s">
+        <x:v>897</x:v>
+      </x:c>
+      <x:c r="B631" t="s">
+        <x:v>896</x:v>
+      </x:c>
+      <x:c r="C631" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="632">
+      <x:c r="A632" t="s">
+        <x:v>898</x:v>
+      </x:c>
+      <x:c r="B632" t="s">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c r="C632" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="633">
+      <x:c r="A633" t="s">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="B633" t="s">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c r="C633" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="634">
+      <x:c r="A634" t="s">
+        <x:v>901</x:v>
+      </x:c>
+      <x:c r="B634" t="s">
+        <x:v>902</x:v>
+      </x:c>
+      <x:c r="C634" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="635">
+      <x:c r="A635" t="s">
+        <x:v>903</x:v>
+      </x:c>
+      <x:c r="B635" t="s">
+        <x:v>902</x:v>
+      </x:c>
+      <x:c r="C635" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="636">
+      <x:c r="A636" t="s">
+        <x:v>904</x:v>
+      </x:c>
+      <x:c r="B636" t="s">
+        <x:v>905</x:v>
+      </x:c>
+      <x:c r="C636" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="637">
+      <x:c r="A637" t="s">
+        <x:v>906</x:v>
+      </x:c>
+      <x:c r="B637" t="s">
+        <x:v>905</x:v>
+      </x:c>
+      <x:c r="C637" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="638">
+      <x:c r="A638" t="s">
+        <x:v>907</x:v>
+      </x:c>
+      <x:c r="B638" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="C638" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="639">
+      <x:c r="A639" t="s">
+        <x:v>909</x:v>
+      </x:c>
+      <x:c r="B639" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="C639" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="640">
+      <x:c r="A640" t="s">
+        <x:v>910</x:v>
+      </x:c>
+      <x:c r="B640" t="s">
+        <x:v>911</x:v>
+      </x:c>
+      <x:c r="C640" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="641">
+      <x:c r="A641" t="s">
+        <x:v>912</x:v>
+      </x:c>
+      <x:c r="B641" t="s">
+        <x:v>911</x:v>
+      </x:c>
+      <x:c r="C641" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="642">
+      <x:c r="A642" t="s">
+        <x:v>913</x:v>
+      </x:c>
+      <x:c r="B642" t="s">
+        <x:v>914</x:v>
+      </x:c>
+      <x:c r="C642" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="643">
+      <x:c r="A643" t="s">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="B643" t="s">
+        <x:v>914</x:v>
+      </x:c>
+      <x:c r="C643" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="644">
+      <x:c r="A644" t="s">
+        <x:v>916</x:v>
+      </x:c>
+      <x:c r="B644" t="s">
+        <x:v>917</x:v>
+      </x:c>
+      <x:c r="C644" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="645">
+      <x:c r="A645" t="s">
+        <x:v>918</x:v>
+      </x:c>
+      <x:c r="B645" t="s">
+        <x:v>917</x:v>
+      </x:c>
+      <x:c r="C645" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="646">
+      <x:c r="A646" t="s">
+        <x:v>919</x:v>
+      </x:c>
+      <x:c r="B646" t="s">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="C646" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="647">
+      <x:c r="A647" t="s">
+        <x:v>921</x:v>
+      </x:c>
+      <x:c r="B647" t="s">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="C647" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="648">
+      <x:c r="A648" t="s">
+        <x:v>922</x:v>
+      </x:c>
+      <x:c r="B648" t="s">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="C648" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="649">
+      <x:c r="A649" t="s">
+        <x:v>924</x:v>
+      </x:c>
+      <x:c r="B649" t="s">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="C649" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="650">
+      <x:c r="A650" t="s">
+        <x:v>925</x:v>
+      </x:c>
+      <x:c r="B650" t="s">
+        <x:v>926</x:v>
+      </x:c>
+      <x:c r="C650" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="651">
+      <x:c r="A651" t="s">
+        <x:v>927</x:v>
+      </x:c>
+      <x:c r="B651" t="s">
+        <x:v>926</x:v>
+      </x:c>
+      <x:c r="C651" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="652">
+      <x:c r="A652" t="s">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c r="B652" t="s">
+        <x:v>929</x:v>
+      </x:c>
+      <x:c r="C652" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="653">
+      <x:c r="A653" t="s">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="B653" t="s">
+        <x:v>929</x:v>
+      </x:c>
+      <x:c r="C653" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="654">
+      <x:c r="A654" t="s">
+        <x:v>931</x:v>
+      </x:c>
+      <x:c r="B654" t="s">
+        <x:v>932</x:v>
+      </x:c>
+      <x:c r="C654" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="655">
+      <x:c r="A655" t="s">
+        <x:v>933</x:v>
+      </x:c>
+      <x:c r="B655" t="s">
+        <x:v>932</x:v>
+      </x:c>
+      <x:c r="C655" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="656">
+      <x:c r="A656" t="s">
+        <x:v>934</x:v>
+      </x:c>
+      <x:c r="B656" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="C656" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="657">
+      <x:c r="A657" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="B657" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="C657" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="658">
+      <x:c r="A658" t="s">
+        <x:v>937</x:v>
+      </x:c>
+      <x:c r="B658" t="s">
+        <x:v>938</x:v>
+      </x:c>
+      <x:c r="C658" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="659">
+      <x:c r="A659" t="s">
+        <x:v>939</x:v>
+      </x:c>
+      <x:c r="B659" t="s">
+        <x:v>938</x:v>
+      </x:c>
+      <x:c r="C659" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="660">
+      <x:c r="A660" t="s">
+        <x:v>940</x:v>
+      </x:c>
+      <x:c r="B660" t="s">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c r="C660" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="661">
+      <x:c r="A661" t="s">
+        <x:v>942</x:v>
+      </x:c>
+      <x:c r="B661" t="s">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c r="C661" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="662">
+      <x:c r="A662" t="s">
+        <x:v>943</x:v>
+      </x:c>
+      <x:c r="B662" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="C662" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="663">
+      <x:c r="A663" t="s">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="B663" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="C663" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="664">
+      <x:c r="A664" t="s">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c r="B664" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="C664" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="665">
+      <x:c r="A665" t="s">
+        <x:v>948</x:v>
+      </x:c>
+      <x:c r="B665" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="C665" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="666">
+      <x:c r="A666" t="s">
+        <x:v>949</x:v>
+      </x:c>
+      <x:c r="B666" t="s">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="C666" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="667">
+      <x:c r="A667" t="s">
+        <x:v>951</x:v>
+      </x:c>
+      <x:c r="B667" t="s">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="C667" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="668">
+      <x:c r="A668" t="s">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c r="B668" t="s">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="C668" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="669">
+      <x:c r="A669" t="s">
+        <x:v>954</x:v>
+      </x:c>
+      <x:c r="B669" t="s">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="C669" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="670">
+      <x:c r="A670" t="s">
+        <x:v>955</x:v>
+      </x:c>
+      <x:c r="B670" t="s">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c r="C670" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="671">
+      <x:c r="A671" t="s">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c r="B671" t="s">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c r="C671" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="672">
+      <x:c r="A672" t="s">
+        <x:v>958</x:v>
+      </x:c>
+      <x:c r="B672" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="C672" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="673">
+      <x:c r="A673" t="s">
+        <x:v>960</x:v>
+      </x:c>
+      <x:c r="B673" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="C673" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="674">
+      <x:c r="A674" t="s">
+        <x:v>961</x:v>
+      </x:c>
+      <x:c r="B674" t="s">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c r="C674" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="675">
+      <x:c r="A675" t="s">
+        <x:v>963</x:v>
+      </x:c>
+      <x:c r="B675" t="s">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c r="C675" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="676">
+      <x:c r="A676" t="s">
+        <x:v>964</x:v>
+      </x:c>
+      <x:c r="B676" t="s">
+        <x:v>965</x:v>
+      </x:c>
+      <x:c r="C676" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="677">
+      <x:c r="A677" t="s">
+        <x:v>966</x:v>
+      </x:c>
+      <x:c r="B677" t="s">
+        <x:v>965</x:v>
+      </x:c>
+      <x:c r="C677" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="678">
+      <x:c r="A678" t="s">
+        <x:v>967</x:v>
+      </x:c>
+      <x:c r="B678" t="s">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c r="C678" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="679">
+      <x:c r="A679" t="s">
+        <x:v>969</x:v>
+      </x:c>
+      <x:c r="B679" t="s">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c r="C679" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="680">
+      <x:c r="A680" t="s">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c r="B680" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="C680" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="681">
+      <x:c r="A681" t="s">
+        <x:v>972</x:v>
+      </x:c>
+      <x:c r="B681" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="C681" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="682">
+      <x:c r="A682" t="s">
+        <x:v>973</x:v>
+      </x:c>
+      <x:c r="B682" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="C682" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="683">
+      <x:c r="A683" t="s">
+        <x:v>975</x:v>
+      </x:c>
+      <x:c r="B683" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="C683" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="684">
+      <x:c r="A684" t="s">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c r="B684" t="s">
+        <x:v>977</x:v>
+      </x:c>
+      <x:c r="C684" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="685">
+      <x:c r="A685" t="s">
+        <x:v>978</x:v>
+      </x:c>
+      <x:c r="B685" t="s">
+        <x:v>977</x:v>
+      </x:c>
+      <x:c r="C685" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="686">
+      <x:c r="A686" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="B686" t="s">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="C686" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="687">
+      <x:c r="A687" t="s">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="B687" t="s">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="C687" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="688">
+      <x:c r="A688" t="s">
+        <x:v>982</x:v>
+      </x:c>
+      <x:c r="B688" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="C688" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="689">
+      <x:c r="A689" t="s">
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="B689" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="C689" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="690">
+      <x:c r="A690" t="s">
+        <x:v>985</x:v>
+      </x:c>
+      <x:c r="B690" t="s">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c r="C690" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="691">
+      <x:c r="A691" t="s">
+        <x:v>987</x:v>
+      </x:c>
+      <x:c r="B691" t="s">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c r="C691" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="692">
+      <x:c r="A692" t="s">
+        <x:v>988</x:v>
+      </x:c>
+      <x:c r="B692" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="C692" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="693">
+      <x:c r="A693" t="s">
+        <x:v>990</x:v>
+      </x:c>
+      <x:c r="B693" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="C693" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="694">
+      <x:c r="A694" t="s">
+        <x:v>991</x:v>
+      </x:c>
+      <x:c r="B694" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="C694" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="695">
+      <x:c r="A695" t="s">
+        <x:v>993</x:v>
+      </x:c>
+      <x:c r="B695" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="C695" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="696">
+      <x:c r="A696" t="s">
+        <x:v>994</x:v>
+      </x:c>
+      <x:c r="B696" t="s">
+        <x:v>995</x:v>
+      </x:c>
+      <x:c r="C696" t="s">
+        <x:v>142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="697">
+      <x:c r="A697" t="s">
+        <x:v>996</x:v>
+      </x:c>
+      <x:c r="B697" t="s">
+        <x:v>995</x:v>
+      </x:c>
+      <x:c r="C697" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </x:worksheet>

--- a/TcpServer/bin/Debug/net8.0/logs.xlsx
+++ b/TcpServer/bin/Debug/net8.0/logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d506596edc2e9c3a/projects/Astro/TcpServer/bin/Debug/net8.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{1C642C20-A05C-43F3-8F79-CE27C80E33A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C375A27E-C64F-4460-9EC0-BA6B1084D45A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{1C642C20-A05C-43F3-8F79-CE27C80E33A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFD15228-91FD-408F-BA69-7199107FA544}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07B90002-7095-4F2E-9C11-B5E3BFDFC44D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{07B90002-7095-4F2E-9C11-B5E3BFDFC44D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="997">
   <x:si>
     <x:t>2024 March 31 2:19:45 AM</x:t>
   </x:si>
@@ -3027,6 +3027,12 @@
   </x:si>
   <x:si>
     <x:t>2024 March 31 10:23:33 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 April 02 6:39:35 AM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 April 02 6:39:47 AM</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3398,16 +3404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5905D49F-3DC1-4DB0-85C3-5B62E5C53D1D}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C697"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView tabSelected="1" topLeftCell="A12" zoomScale="216" workbookViewId="0">
+      <x:selection activeCell="B17" sqref="B17"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -3418,7 +3426,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A2" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -3429,7 +3437,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A3" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -3440,7 +3448,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="4">
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A4" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -3451,7 +3459,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A5" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -3462,7 +3470,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A6" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -3473,7 +3481,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A7" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -3484,7 +3492,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A8" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -3495,7 +3503,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A9" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -3506,7 +3514,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A10" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -3517,7 +3525,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A11" t="s">
         <x:v>17</x:v>
       </x:c>
@@ -3528,7 +3536,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A12" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -3539,7 +3547,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A13" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -3550,7 +3558,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A14" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -3561,7 +3569,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A15" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -3572,7 +3580,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A16" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -3583,7 +3591,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A17" t="s">
         <x:v>25</x:v>
       </x:c>
@@ -3594,7 +3602,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A18" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -3605,7 +3613,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A19" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -3616,7 +3624,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A20" t="s">
         <x:v>29</x:v>
       </x:c>
@@ -3627,7 +3635,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A21" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -3638,7 +3646,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A22" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -3649,7 +3657,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A23" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -3660,7 +3668,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A24" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -3671,7 +3679,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A25" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -3682,7 +3690,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A26" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -3693,7 +3701,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A27" t="s">
         <x:v>40</x:v>
       </x:c>
@@ -3704,7 +3712,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A28" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -3715,7 +3723,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A29" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -3726,7 +3734,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A30" t="s">
         <x:v>44</x:v>
       </x:c>
@@ -3737,7 +3745,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A31" t="s">
         <x:v>46</x:v>
       </x:c>
@@ -3748,7 +3756,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A32" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -3759,7 +3767,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A33" t="s">
         <x:v>48</x:v>
       </x:c>
@@ -3770,7 +3778,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A34" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -3781,7 +3789,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A35" t="s">
         <x:v>51</x:v>
       </x:c>
@@ -3792,7 +3800,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A36" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -3803,7 +3811,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A37" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -3814,7 +3822,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A38" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -3825,7 +3833,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A39" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -3836,7 +3844,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A40" t="s">
         <x:v>57</x:v>
       </x:c>
@@ -3847,7 +3855,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A41" t="s">
         <x:v>59</x:v>
       </x:c>
@@ -3858,7 +3866,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A42" t="s">
         <x:v>60</x:v>
       </x:c>
@@ -3869,7 +3877,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A43" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -3880,7 +3888,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A44" t="s">
         <x:v>62</x:v>
       </x:c>
@@ -3891,7 +3899,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A45" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -3902,7 +3910,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A46" t="s">
         <x:v>65</x:v>
       </x:c>
@@ -3913,7 +3921,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A47" t="s">
         <x:v>66</x:v>
       </x:c>
@@ -3924,7 +3932,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="48">
+    <x:row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A48" t="s">
         <x:v>68</x:v>
       </x:c>
@@ -3935,7 +3943,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="49">
+    <x:row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A49" t="s">
         <x:v>69</x:v>
       </x:c>
@@ -3946,7 +3954,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="50">
+    <x:row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A50" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -3957,7 +3965,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="51">
+    <x:row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A51" t="s">
         <x:v>72</x:v>
       </x:c>
@@ -3968,7 +3976,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="52">
+    <x:row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A52" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -3979,7 +3987,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="53">
+    <x:row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A53" t="s">
         <x:v>74</x:v>
       </x:c>
@@ -3990,7 +3998,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="54">
+    <x:row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A54" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -4001,7 +4009,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="55">
+    <x:row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A55" t="s">
         <x:v>77</x:v>
       </x:c>
@@ -4012,7 +4020,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="56">
+    <x:row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A56" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -4023,7 +4031,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="57">
+    <x:row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A57" t="s">
         <x:v>80</x:v>
       </x:c>
@@ -4034,7 +4042,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="58">
+    <x:row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A58" t="s">
         <x:v>81</x:v>
       </x:c>
@@ -4045,7 +4053,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="59">
+    <x:row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A59" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -4056,7 +4064,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="60">
+    <x:row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A60" t="s">
         <x:v>84</x:v>
       </x:c>
@@ -4067,7 +4075,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="61">
+    <x:row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A61" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -4078,7 +4086,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="62">
+    <x:row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A62" t="s">
         <x:v>86</x:v>
       </x:c>
@@ -4089,7 +4097,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="63">
+    <x:row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A63" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -4100,7 +4108,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="64">
+    <x:row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A64" t="s">
         <x:v>89</x:v>
       </x:c>
@@ -4111,7 +4119,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="65">
+    <x:row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A65" t="s">
         <x:v>90</x:v>
       </x:c>
@@ -4122,7 +4130,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="66">
+    <x:row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A66" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -4133,7 +4141,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="67">
+    <x:row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A67" t="s">
         <x:v>92</x:v>
       </x:c>
@@ -4144,7 +4152,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="68">
+    <x:row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A68" t="s">
         <x:v>93</x:v>
       </x:c>
@@ -4155,7 +4163,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="69">
+    <x:row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A69" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -4166,7 +4174,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="70">
+    <x:row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A70" t="s">
         <x:v>95</x:v>
       </x:c>
@@ -4177,7 +4185,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="71">
+    <x:row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A71" t="s">
         <x:v>96</x:v>
       </x:c>
@@ -4188,7 +4196,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="72">
+    <x:row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A72" t="s">
         <x:v>98</x:v>
       </x:c>
@@ -4199,7 +4207,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="73">
+    <x:row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A73" t="s">
         <x:v>99</x:v>
       </x:c>
@@ -4210,7 +4218,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="74">
+    <x:row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A74" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -4221,7 +4229,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="75">
+    <x:row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A75" t="s">
         <x:v>102</x:v>
       </x:c>
@@ -4232,7 +4240,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="76">
+    <x:row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A76" t="s">
         <x:v>104</x:v>
       </x:c>
@@ -4243,7 +4251,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="77">
+    <x:row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A77" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -4254,7 +4262,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="78">
+    <x:row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A78" t="s">
         <x:v>107</x:v>
       </x:c>
@@ -4265,7 +4273,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="79">
+    <x:row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A79" t="s">
         <x:v>108</x:v>
       </x:c>
@@ -4276,7 +4284,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="80">
+    <x:row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A80" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -4287,7 +4295,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="81">
+    <x:row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A81" t="s">
         <x:v>111</x:v>
       </x:c>
@@ -4298,7 +4306,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="82">
+    <x:row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A82" t="s">
         <x:v>113</x:v>
       </x:c>
@@ -4309,7 +4317,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="83">
+    <x:row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A83" t="s">
         <x:v>114</x:v>
       </x:c>
@@ -4320,7 +4328,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="84">
+    <x:row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A84" t="s">
         <x:v>115</x:v>
       </x:c>
@@ -4331,7 +4339,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="85">
+    <x:row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A85" t="s">
         <x:v>116</x:v>
       </x:c>
@@ -4342,7 +4350,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="86">
+    <x:row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A86" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -4353,7 +4361,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="87">
+    <x:row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A87" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -4364,7 +4372,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="88">
+    <x:row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A88" t="s">
         <x:v>120</x:v>
       </x:c>
@@ -4375,7 +4383,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="89">
+    <x:row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A89" t="s">
         <x:v>121</x:v>
       </x:c>
@@ -4386,7 +4394,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="90">
+    <x:row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A90" t="s">
         <x:v>122</x:v>
       </x:c>
@@ -4397,7 +4405,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="91">
+    <x:row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A91" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -4408,7 +4416,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="92">
+    <x:row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A92" t="s">
         <x:v>125</x:v>
       </x:c>
@@ -4419,7 +4427,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="93">
+    <x:row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A93" t="s">
         <x:v>126</x:v>
       </x:c>
@@ -4430,7 +4438,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="94">
+    <x:row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A94" t="s">
         <x:v>127</x:v>
       </x:c>
@@ -4441,7 +4449,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="95">
+    <x:row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A95" t="s">
         <x:v>128</x:v>
       </x:c>
@@ -4452,7 +4460,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="96">
+    <x:row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A96" t="s">
         <x:v>129</x:v>
       </x:c>
@@ -4463,7 +4471,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="97">
+    <x:row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A97" t="s">
         <x:v>131</x:v>
       </x:c>
@@ -4474,7 +4482,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="98">
+    <x:row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A98" t="s">
         <x:v>131</x:v>
       </x:c>
@@ -4485,7 +4493,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="99">
+    <x:row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A99" t="s">
         <x:v>133</x:v>
       </x:c>
@@ -4496,7 +4504,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="100">
+    <x:row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A100" t="s">
         <x:v>134</x:v>
       </x:c>
@@ -4507,7 +4515,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="101">
+    <x:row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A101" t="s">
         <x:v>135</x:v>
       </x:c>
@@ -4518,7 +4526,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="102">
+    <x:row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A102" t="s">
         <x:v>136</x:v>
       </x:c>
@@ -4529,7 +4537,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="103">
+    <x:row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A103" t="s">
         <x:v>137</x:v>
       </x:c>
@@ -4540,7 +4548,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="104">
+    <x:row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A104" t="s">
         <x:v>138</x:v>
       </x:c>
@@ -4551,7 +4559,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="105">
+    <x:row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A105" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -4562,7 +4570,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="106">
+    <x:row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A106" t="s">
         <x:v>140</x:v>
       </x:c>
@@ -4573,7 +4581,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="107">
+    <x:row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A107" t="s">
         <x:v>143</x:v>
       </x:c>
@@ -4584,7 +4592,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="108">
+    <x:row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A108" t="s">
         <x:v>144</x:v>
       </x:c>
@@ -4595,7 +4603,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="109">
+    <x:row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A109" t="s">
         <x:v>145</x:v>
       </x:c>
@@ -4606,7 +4614,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="110">
+    <x:row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A110" t="s">
         <x:v>146</x:v>
       </x:c>
@@ -4617,7 +4625,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="111">
+    <x:row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A111" t="s">
         <x:v>147</x:v>
       </x:c>
@@ -4628,7 +4636,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="112">
+    <x:row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A112" t="s">
         <x:v>147</x:v>
       </x:c>
@@ -4639,7 +4647,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="113">
+    <x:row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A113" t="s">
         <x:v>150</x:v>
       </x:c>
@@ -4650,7 +4658,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="114">
+    <x:row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A114" t="s">
         <x:v>150</x:v>
       </x:c>
@@ -4661,7 +4669,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="115">
+    <x:row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A115" t="s">
         <x:v>153</x:v>
       </x:c>
@@ -4672,7 +4680,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="116">
+    <x:row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A116" t="s">
         <x:v>153</x:v>
       </x:c>
@@ -4683,7 +4691,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="117">
+    <x:row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A117" t="s">
         <x:v>156</x:v>
       </x:c>
@@ -4694,7 +4702,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="118">
+    <x:row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A118" t="s">
         <x:v>158</x:v>
       </x:c>
@@ -4705,7 +4713,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="119">
+    <x:row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A119" t="s">
         <x:v>159</x:v>
       </x:c>
@@ -4716,7 +4724,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="120">
+    <x:row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A120" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -4727,7 +4735,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="121">
+    <x:row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A121" t="s">
         <x:v>161</x:v>
       </x:c>
@@ -4738,7 +4746,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="122">
+    <x:row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A122" t="s">
         <x:v>162</x:v>
       </x:c>
@@ -4749,7 +4757,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="123">
+    <x:row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A123" t="s">
         <x:v>164</x:v>
       </x:c>
@@ -4760,7 +4768,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="124">
+    <x:row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A124" t="s">
         <x:v>164</x:v>
       </x:c>
@@ -4771,7 +4779,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="125">
+    <x:row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A125" t="s">
         <x:v>167</x:v>
       </x:c>
@@ -4782,7 +4790,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="126">
+    <x:row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A126" t="s">
         <x:v>167</x:v>
       </x:c>
@@ -4793,7 +4801,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="127">
+    <x:row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A127" t="s">
         <x:v>170</x:v>
       </x:c>
@@ -4804,7 +4812,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="128">
+    <x:row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A128" t="s">
         <x:v>170</x:v>
       </x:c>
@@ -4815,7 +4823,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="129">
+    <x:row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A129" t="s">
         <x:v>173</x:v>
       </x:c>
@@ -4826,7 +4834,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="130">
+    <x:row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A130" t="s">
         <x:v>174</x:v>
       </x:c>
@@ -4837,7 +4845,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="131">
+    <x:row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A131" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -4848,7 +4856,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="132">
+    <x:row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A132" t="s">
         <x:v>176</x:v>
       </x:c>
@@ -4859,7 +4867,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="133">
+    <x:row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A133" t="s">
         <x:v>177</x:v>
       </x:c>
@@ -4870,7 +4878,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="134">
+    <x:row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A134" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -4881,7 +4889,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="135">
+    <x:row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A135" t="s">
         <x:v>179</x:v>
       </x:c>
@@ -4892,7 +4900,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="136">
+    <x:row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A136" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -4903,7 +4911,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="137">
+    <x:row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A137" t="s">
         <x:v>182</x:v>
       </x:c>
@@ -4914,7 +4922,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="138">
+    <x:row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A138" t="s">
         <x:v>183</x:v>
       </x:c>
@@ -4925,7 +4933,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="139">
+    <x:row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A139" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -4936,7 +4944,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="140">
+    <x:row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A140" t="s">
         <x:v>185</x:v>
       </x:c>
@@ -4947,7 +4955,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="141">
+    <x:row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A141" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -4958,7 +4966,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="142">
+    <x:row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A142" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -4969,7 +4977,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="143">
+    <x:row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A143" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -4980,7 +4988,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="144">
+    <x:row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A144" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -4991,7 +4999,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="145">
+    <x:row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A145" t="s">
         <x:v>194</x:v>
       </x:c>
@@ -5002,7 +5010,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="146">
+    <x:row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A146" t="s">
         <x:v>194</x:v>
       </x:c>
@@ -5013,7 +5021,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="147">
+    <x:row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A147" t="s">
         <x:v>197</x:v>
       </x:c>
@@ -5024,7 +5032,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="148">
+    <x:row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A148" t="s">
         <x:v>199</x:v>
       </x:c>
@@ -5035,7 +5043,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="149">
+    <x:row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A149" t="s">
         <x:v>199</x:v>
       </x:c>
@@ -5046,7 +5054,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="150">
+    <x:row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A150" t="s">
         <x:v>202</x:v>
       </x:c>
@@ -5057,7 +5065,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="151">
+    <x:row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A151" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -5068,7 +5076,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="152">
+    <x:row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A152" t="s">
         <x:v>205</x:v>
       </x:c>
@@ -5079,7 +5087,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="153">
+    <x:row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A153" t="s">
         <x:v>205</x:v>
       </x:c>
@@ -5090,7 +5098,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="154">
+    <x:row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A154" t="s">
         <x:v>206</x:v>
       </x:c>
@@ -5101,7 +5109,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="155">
+    <x:row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A155" t="s">
         <x:v>207</x:v>
       </x:c>
@@ -5112,7 +5120,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="156">
+    <x:row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A156" t="s">
         <x:v>208</x:v>
       </x:c>
@@ -5123,7 +5131,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="157">
+    <x:row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A157" t="s">
         <x:v>208</x:v>
       </x:c>
@@ -5134,7 +5142,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="158">
+    <x:row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A158" t="s">
         <x:v>209</x:v>
       </x:c>
@@ -5145,7 +5153,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="159">
+    <x:row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A159" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -5156,7 +5164,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="160">
+    <x:row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A160" t="s">
         <x:v>211</x:v>
       </x:c>
@@ -5167,7 +5175,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="161">
+    <x:row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A161" t="s">
         <x:v>213</x:v>
       </x:c>
@@ -5178,7 +5186,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="162">
+    <x:row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A162" t="s">
         <x:v>214</x:v>
       </x:c>
@@ -5189,7 +5197,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="163">
+    <x:row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A163" t="s">
         <x:v>215</x:v>
       </x:c>
@@ -5200,7 +5208,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="164">
+    <x:row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A164" t="s">
         <x:v>215</x:v>
       </x:c>
@@ -5211,7 +5219,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="165">
+    <x:row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A165" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -5222,7 +5230,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="166">
+    <x:row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A166" t="s">
         <x:v>217</x:v>
       </x:c>
@@ -5233,7 +5241,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="167">
+    <x:row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A167" t="s">
         <x:v>218</x:v>
       </x:c>
@@ -5244,7 +5252,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="168">
+    <x:row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A168" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -5255,7 +5263,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="169">
+    <x:row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A169" t="s">
         <x:v>220</x:v>
       </x:c>
@@ -5266,7 +5274,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="170">
+    <x:row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A170" t="s">
         <x:v>221</x:v>
       </x:c>
@@ -5277,7 +5285,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="171">
+    <x:row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A171" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -5288,7 +5296,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="172">
+    <x:row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A172" t="s">
         <x:v>223</x:v>
       </x:c>
@@ -5299,7 +5307,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="173">
+    <x:row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A173" t="s">
         <x:v>225</x:v>
       </x:c>
@@ -5310,7 +5318,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="174">
+    <x:row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A174" t="s">
         <x:v>226</x:v>
       </x:c>
@@ -5321,7 +5329,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="175">
+    <x:row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A175" t="s">
         <x:v>227</x:v>
       </x:c>
@@ -5332,7 +5340,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="176">
+    <x:row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A176" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -5343,7 +5351,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="177">
+    <x:row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A177" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -5354,7 +5362,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="178">
+    <x:row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A178" t="s">
         <x:v>229</x:v>
       </x:c>
@@ -5365,7 +5373,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="179">
+    <x:row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A179" t="s">
         <x:v>230</x:v>
       </x:c>
@@ -5376,7 +5384,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="180">
+    <x:row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A180" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -5387,7 +5395,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="181">
+    <x:row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A181" t="s">
         <x:v>232</x:v>
       </x:c>
@@ -5398,7 +5406,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="182">
+    <x:row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A182" t="s">
         <x:v>233</x:v>
       </x:c>
@@ -5409,7 +5417,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="183">
+    <x:row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A183" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -5420,7 +5428,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="184">
+    <x:row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A184" t="s">
         <x:v>235</x:v>
       </x:c>
@@ -5431,7 +5439,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="185">
+    <x:row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A185" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -5442,7 +5450,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="186">
+    <x:row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A186" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -5453,7 +5461,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="187">
+    <x:row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A187" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -5464,7 +5472,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="188">
+    <x:row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A188" t="s">
         <x:v>242</x:v>
       </x:c>
@@ -5475,7 +5483,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="189">
+    <x:row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A189" t="s">
         <x:v>244</x:v>
       </x:c>
@@ -5486,7 +5494,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="190">
+    <x:row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A190" t="s">
         <x:v>246</x:v>
       </x:c>
@@ -5497,7 +5505,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="191">
+    <x:row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A191" t="s">
         <x:v>248</x:v>
       </x:c>
@@ -5508,7 +5516,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="192">
+    <x:row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A192" t="s">
         <x:v>250</x:v>
       </x:c>
@@ -5519,7 +5527,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="193">
+    <x:row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A193" t="s">
         <x:v>252</x:v>
       </x:c>
@@ -5530,7 +5538,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="194">
+    <x:row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A194" t="s">
         <x:v>254</x:v>
       </x:c>
@@ -5541,7 +5549,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="195">
+    <x:row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A195" t="s">
         <x:v>255</x:v>
       </x:c>
@@ -5552,7 +5560,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="196">
+    <x:row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A196" t="s">
         <x:v>256</x:v>
       </x:c>
@@ -5563,7 +5571,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="197">
+    <x:row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A197" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -5574,7 +5582,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="198">
+    <x:row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A198" t="s">
         <x:v>259</x:v>
       </x:c>
@@ -5585,7 +5593,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="199">
+    <x:row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A199" t="s">
         <x:v>260</x:v>
       </x:c>
@@ -5596,7 +5604,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="200">
+    <x:row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A200" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -5607,7 +5615,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="201">
+    <x:row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A201" t="s">
         <x:v>263</x:v>
       </x:c>
@@ -5618,7 +5626,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="202">
+    <x:row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A202" t="s">
         <x:v>264</x:v>
       </x:c>
@@ -5629,7 +5637,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="203">
+    <x:row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A203" t="s">
         <x:v>265</x:v>
       </x:c>
@@ -5640,7 +5648,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="204">
+    <x:row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A204" t="s">
         <x:v>266</x:v>
       </x:c>
@@ -5651,7 +5659,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="205">
+    <x:row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A205" t="s">
         <x:v>268</x:v>
       </x:c>
@@ -5662,7 +5670,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="206">
+    <x:row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A206" t="s">
         <x:v>269</x:v>
       </x:c>
@@ -5673,7 +5681,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="207">
+    <x:row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A207" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -5684,7 +5692,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="208">
+    <x:row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A208" t="s">
         <x:v>271</x:v>
       </x:c>
@@ -5695,7 +5703,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="209">
+    <x:row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A209" t="s">
         <x:v>273</x:v>
       </x:c>
@@ -5706,7 +5714,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="210">
+    <x:row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A210" t="s">
         <x:v>275</x:v>
       </x:c>
@@ -5717,7 +5725,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="211">
+    <x:row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A211" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -5728,7 +5736,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="212">
+    <x:row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A212" t="s">
         <x:v>277</x:v>
       </x:c>
@@ -5739,7 +5747,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="213">
+    <x:row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A213" t="s">
         <x:v>278</x:v>
       </x:c>
@@ -5750,7 +5758,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="214">
+    <x:row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A214" t="s">
         <x:v>280</x:v>
       </x:c>
@@ -5761,7 +5769,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="215">
+    <x:row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A215" t="s">
         <x:v>281</x:v>
       </x:c>
@@ -5772,7 +5780,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="216">
+    <x:row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A216" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -5783,7 +5791,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="217">
+    <x:row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A217" t="s">
         <x:v>283</x:v>
       </x:c>
@@ -5794,7 +5802,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="218">
+    <x:row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A218" t="s">
         <x:v>285</x:v>
       </x:c>
@@ -5805,7 +5813,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="219">
+    <x:row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A219" t="s">
         <x:v>286</x:v>
       </x:c>
@@ -5816,7 +5824,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="220">
+    <x:row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A220" t="s">
         <x:v>287</x:v>
       </x:c>
@@ -5827,7 +5835,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="221">
+    <x:row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A221" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -5838,7 +5846,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="222">
+    <x:row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A222" t="s">
         <x:v>290</x:v>
       </x:c>
@@ -5849,7 +5857,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="223">
+    <x:row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A223" t="s">
         <x:v>291</x:v>
       </x:c>
@@ -5860,7 +5868,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="224">
+    <x:row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A224" t="s">
         <x:v>293</x:v>
       </x:c>
@@ -5871,7 +5879,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="225">
+    <x:row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A225" t="s">
         <x:v>295</x:v>
       </x:c>
@@ -5882,7 +5890,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="226">
+    <x:row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A226" t="s">
         <x:v>297</x:v>
       </x:c>
@@ -5893,7 +5901,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="227">
+    <x:row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A227" t="s">
         <x:v>298</x:v>
       </x:c>
@@ -5904,7 +5912,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="228">
+    <x:row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A228" t="s">
         <x:v>300</x:v>
       </x:c>
@@ -5915,7 +5923,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="229">
+    <x:row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A229" t="s">
         <x:v>301</x:v>
       </x:c>
@@ -5926,7 +5934,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="230">
+    <x:row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A230" t="s">
         <x:v>303</x:v>
       </x:c>
@@ -5937,7 +5945,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="231">
+    <x:row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A231" t="s">
         <x:v>304</x:v>
       </x:c>
@@ -5948,7 +5956,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="232">
+    <x:row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A232" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -5959,7 +5967,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="233">
+    <x:row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A233" t="s">
         <x:v>307</x:v>
       </x:c>
@@ -5970,7 +5978,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="234">
+    <x:row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A234" t="s">
         <x:v>309</x:v>
       </x:c>
@@ -5981,7 +5989,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="235">
+    <x:row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A235" t="s">
         <x:v>310</x:v>
       </x:c>
@@ -5992,7 +6000,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="236">
+    <x:row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A236" t="s">
         <x:v>311</x:v>
       </x:c>
@@ -6003,7 +6011,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="237">
+    <x:row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A237" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -6014,7 +6022,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="238">
+    <x:row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A238" t="s">
         <x:v>314</x:v>
       </x:c>
@@ -6025,7 +6033,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="239">
+    <x:row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A239" t="s">
         <x:v>315</x:v>
       </x:c>
@@ -6036,7 +6044,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="240">
+    <x:row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A240" t="s">
         <x:v>317</x:v>
       </x:c>
@@ -6047,7 +6055,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="241">
+    <x:row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A241" t="s">
         <x:v>318</x:v>
       </x:c>
@@ -6058,7 +6066,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="242">
+    <x:row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A242" t="s">
         <x:v>320</x:v>
       </x:c>
@@ -6069,7 +6077,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="243">
+    <x:row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A243" t="s">
         <x:v>321</x:v>
       </x:c>
@@ -6080,7 +6088,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="244">
+    <x:row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A244" t="s">
         <x:v>323</x:v>
       </x:c>
@@ -6091,7 +6099,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="245">
+    <x:row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A245" t="s">
         <x:v>324</x:v>
       </x:c>
@@ -6102,7 +6110,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="246">
+    <x:row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A246" t="s">
         <x:v>326</x:v>
       </x:c>
@@ -6113,7 +6121,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="247">
+    <x:row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A247" t="s">
         <x:v>327</x:v>
       </x:c>
@@ -6124,7 +6132,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="248">
+    <x:row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A248" t="s">
         <x:v>329</x:v>
       </x:c>
@@ -6135,7 +6143,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="249">
+    <x:row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A249" t="s">
         <x:v>330</x:v>
       </x:c>
@@ -6146,7 +6154,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="250">
+    <x:row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A250" t="s">
         <x:v>332</x:v>
       </x:c>
@@ -6157,7 +6165,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="251">
+    <x:row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A251" t="s">
         <x:v>333</x:v>
       </x:c>
@@ -6168,7 +6176,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="252">
+    <x:row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A252" t="s">
         <x:v>335</x:v>
       </x:c>
@@ -6179,7 +6187,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="253">
+    <x:row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A253" t="s">
         <x:v>336</x:v>
       </x:c>
@@ -6190,7 +6198,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="254">
+    <x:row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A254" t="s">
         <x:v>338</x:v>
       </x:c>
@@ -6201,7 +6209,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="255">
+    <x:row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A255" t="s">
         <x:v>339</x:v>
       </x:c>
@@ -6212,7 +6220,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="256">
+    <x:row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A256" t="s">
         <x:v>341</x:v>
       </x:c>
@@ -6223,7 +6231,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="257">
+    <x:row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A257" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -6234,7 +6242,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="258">
+    <x:row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A258" t="s">
         <x:v>343</x:v>
       </x:c>
@@ -6245,7 +6253,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="259">
+    <x:row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A259" t="s">
         <x:v>344</x:v>
       </x:c>
@@ -6256,7 +6264,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="260">
+    <x:row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A260" t="s">
         <x:v>346</x:v>
       </x:c>
@@ -6267,7 +6275,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="261">
+    <x:row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A261" t="s">
         <x:v>347</x:v>
       </x:c>
@@ -6278,7 +6286,7 @@
         <x:v>39</x:v>
       </x:c>
     </x:row>
-    <x:row r="262">
+    <x:row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A262" t="s">
         <x:v>349</x:v>
       </x:c>
@@ -6289,7 +6297,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="263">
+    <x:row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A263" t="s">
         <x:v>350</x:v>
       </x:c>
@@ -6300,7 +6308,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="264">
+    <x:row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A264" t="s">
         <x:v>351</x:v>
       </x:c>
@@ -6311,7 +6319,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="265">
+    <x:row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A265" t="s">
         <x:v>352</x:v>
       </x:c>
@@ -6322,7 +6330,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="266">
+    <x:row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A266" t="s">
         <x:v>354</x:v>
       </x:c>
@@ -6333,7 +6341,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="267">
+    <x:row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A267" t="s">
         <x:v>355</x:v>
       </x:c>
@@ -6344,7 +6352,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="268">
+    <x:row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A268" t="s">
         <x:v>356</x:v>
       </x:c>
@@ -6355,7 +6363,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="269">
+    <x:row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A269" t="s">
         <x:v>358</x:v>
       </x:c>
@@ -6366,7 +6374,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="270">
+    <x:row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A270" t="s">
         <x:v>359</x:v>
       </x:c>
@@ -6377,7 +6385,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="271">
+    <x:row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A271" t="s">
         <x:v>360</x:v>
       </x:c>
@@ -6388,7 +6396,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="272">
+    <x:row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A272" t="s">
         <x:v>362</x:v>
       </x:c>
@@ -6399,7 +6407,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="273">
+    <x:row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A273" t="s">
         <x:v>363</x:v>
       </x:c>
@@ -6410,7 +6418,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="274">
+    <x:row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A274" t="s">
         <x:v>365</x:v>
       </x:c>
@@ -6421,7 +6429,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="275">
+    <x:row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A275" t="s">
         <x:v>366</x:v>
       </x:c>
@@ -6432,7 +6440,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="276">
+    <x:row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A276" t="s">
         <x:v>368</x:v>
       </x:c>
@@ -6443,7 +6451,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="277">
+    <x:row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A277" t="s">
         <x:v>369</x:v>
       </x:c>
@@ -6454,7 +6462,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="278">
+    <x:row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A278" t="s">
         <x:v>371</x:v>
       </x:c>
@@ -6465,7 +6473,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="279">
+    <x:row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A279" t="s">
         <x:v>372</x:v>
       </x:c>
@@ -6476,7 +6484,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="280">
+    <x:row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A280" t="s">
         <x:v>374</x:v>
       </x:c>
@@ -6487,7 +6495,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="281">
+    <x:row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A281" t="s">
         <x:v>375</x:v>
       </x:c>
@@ -6498,7 +6506,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="282">
+    <x:row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A282" t="s">
         <x:v>377</x:v>
       </x:c>
@@ -6509,7 +6517,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="283">
+    <x:row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A283" t="s">
         <x:v>378</x:v>
       </x:c>
@@ -6520,7 +6528,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="284">
+    <x:row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A284" t="s">
         <x:v>380</x:v>
       </x:c>
@@ -6531,7 +6539,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="285">
+    <x:row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A285" t="s">
         <x:v>381</x:v>
       </x:c>
@@ -6542,7 +6550,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="286">
+    <x:row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A286" t="s">
         <x:v>383</x:v>
       </x:c>
@@ -6553,7 +6561,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="287">
+    <x:row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A287" t="s">
         <x:v>384</x:v>
       </x:c>
@@ -6564,7 +6572,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="288">
+    <x:row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A288" t="s">
         <x:v>386</x:v>
       </x:c>
@@ -6575,7 +6583,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="289">
+    <x:row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A289" t="s">
         <x:v>387</x:v>
       </x:c>
@@ -6586,7 +6594,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="290">
+    <x:row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A290" t="s">
         <x:v>389</x:v>
       </x:c>
@@ -6597,7 +6605,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="291">
+    <x:row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A291" t="s">
         <x:v>390</x:v>
       </x:c>
@@ -6608,7 +6616,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="292">
+    <x:row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A292" t="s">
         <x:v>391</x:v>
       </x:c>
@@ -6619,7 +6627,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="293">
+    <x:row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A293" t="s">
         <x:v>392</x:v>
       </x:c>
@@ -6630,7 +6638,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="294">
+    <x:row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A294" t="s">
         <x:v>393</x:v>
       </x:c>
@@ -6641,7 +6649,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="295">
+    <x:row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A295" t="s">
         <x:v>395</x:v>
       </x:c>
@@ -6652,7 +6660,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="296">
+    <x:row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A296" t="s">
         <x:v>396</x:v>
       </x:c>
@@ -6663,7 +6671,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="297">
+    <x:row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A297" t="s">
         <x:v>398</x:v>
       </x:c>
@@ -6674,7 +6682,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="298">
+    <x:row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A298" t="s">
         <x:v>399</x:v>
       </x:c>
@@ -6685,7 +6693,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="299">
+    <x:row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A299" t="s">
         <x:v>401</x:v>
       </x:c>
@@ -6696,7 +6704,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="300">
+    <x:row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A300" t="s">
         <x:v>402</x:v>
       </x:c>
@@ -6707,7 +6715,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="301">
+    <x:row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A301" t="s">
         <x:v>404</x:v>
       </x:c>
@@ -6718,7 +6726,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="302">
+    <x:row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A302" t="s">
         <x:v>405</x:v>
       </x:c>
@@ -6729,7 +6737,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="303">
+    <x:row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A303" t="s">
         <x:v>407</x:v>
       </x:c>
@@ -6740,7 +6748,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="304">
+    <x:row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A304" t="s">
         <x:v>408</x:v>
       </x:c>
@@ -6751,7 +6759,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="305">
+    <x:row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A305" t="s">
         <x:v>410</x:v>
       </x:c>
@@ -6762,7 +6770,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="306">
+    <x:row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A306" t="s">
         <x:v>411</x:v>
       </x:c>
@@ -6773,7 +6781,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="307">
+    <x:row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A307" t="s">
         <x:v>413</x:v>
       </x:c>
@@ -6784,7 +6792,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="308">
+    <x:row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A308" t="s">
         <x:v>414</x:v>
       </x:c>
@@ -6795,7 +6803,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="309">
+    <x:row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A309" t="s">
         <x:v>416</x:v>
       </x:c>
@@ -6806,7 +6814,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="310">
+    <x:row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A310" t="s">
         <x:v>417</x:v>
       </x:c>
@@ -6817,7 +6825,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="311">
+    <x:row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A311" t="s">
         <x:v>419</x:v>
       </x:c>
@@ -6828,7 +6836,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="312">
+    <x:row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A312" t="s">
         <x:v>420</x:v>
       </x:c>
@@ -6839,7 +6847,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="313">
+    <x:row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A313" t="s">
         <x:v>422</x:v>
       </x:c>
@@ -6850,7 +6858,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="314">
+    <x:row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A314" t="s">
         <x:v>423</x:v>
       </x:c>
@@ -6861,7 +6869,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="315">
+    <x:row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A315" t="s">
         <x:v>425</x:v>
       </x:c>
@@ -6872,7 +6880,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="316">
+    <x:row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A316" t="s">
         <x:v>426</x:v>
       </x:c>
@@ -6883,7 +6891,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="317">
+    <x:row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A317" t="s">
         <x:v>428</x:v>
       </x:c>
@@ -6894,7 +6902,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="318">
+    <x:row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A318" t="s">
         <x:v>429</x:v>
       </x:c>
@@ -6905,7 +6913,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="319">
+    <x:row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A319" t="s">
         <x:v>431</x:v>
       </x:c>
@@ -6916,7 +6924,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="320">
+    <x:row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A320" t="s">
         <x:v>432</x:v>
       </x:c>
@@ -6927,7 +6935,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="321">
+    <x:row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A321" t="s">
         <x:v>434</x:v>
       </x:c>
@@ -6938,7 +6946,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="322">
+    <x:row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A322" t="s">
         <x:v>435</x:v>
       </x:c>
@@ -6949,7 +6957,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="323">
+    <x:row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A323" t="s">
         <x:v>437</x:v>
       </x:c>
@@ -6960,7 +6968,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="324">
+    <x:row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A324" t="s">
         <x:v>438</x:v>
       </x:c>
@@ -6971,7 +6979,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="325">
+    <x:row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A325" t="s">
         <x:v>440</x:v>
       </x:c>
@@ -6982,7 +6990,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="326">
+    <x:row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A326" t="s">
         <x:v>441</x:v>
       </x:c>
@@ -6993,7 +7001,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="327">
+    <x:row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A327" t="s">
         <x:v>443</x:v>
       </x:c>
@@ -7004,7 +7012,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="328">
+    <x:row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A328" t="s">
         <x:v>444</x:v>
       </x:c>
@@ -7015,7 +7023,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="329">
+    <x:row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A329" t="s">
         <x:v>446</x:v>
       </x:c>
@@ -7026,7 +7034,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="330">
+    <x:row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A330" t="s">
         <x:v>447</x:v>
       </x:c>
@@ -7037,7 +7045,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="331">
+    <x:row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A331" t="s">
         <x:v>449</x:v>
       </x:c>
@@ -7048,7 +7056,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="332">
+    <x:row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A332" t="s">
         <x:v>450</x:v>
       </x:c>
@@ -7059,7 +7067,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="333">
+    <x:row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A333" t="s">
         <x:v>452</x:v>
       </x:c>
@@ -7070,7 +7078,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="334">
+    <x:row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A334" t="s">
         <x:v>453</x:v>
       </x:c>
@@ -7081,7 +7089,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="335">
+    <x:row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A335" t="s">
         <x:v>455</x:v>
       </x:c>
@@ -7092,7 +7100,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="336">
+    <x:row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A336" t="s">
         <x:v>456</x:v>
       </x:c>
@@ -7103,7 +7111,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="337">
+    <x:row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A337" t="s">
         <x:v>458</x:v>
       </x:c>
@@ -7114,7 +7122,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="338">
+    <x:row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A338" t="s">
         <x:v>459</x:v>
       </x:c>
@@ -7125,7 +7133,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="339">
+    <x:row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A339" t="s">
         <x:v>461</x:v>
       </x:c>
@@ -7136,7 +7144,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="340">
+    <x:row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A340" t="s">
         <x:v>462</x:v>
       </x:c>
@@ -7147,7 +7155,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="341">
+    <x:row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A341" t="s">
         <x:v>464</x:v>
       </x:c>
@@ -7158,7 +7166,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="342">
+    <x:row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A342" t="s">
         <x:v>465</x:v>
       </x:c>
@@ -7169,7 +7177,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="343">
+    <x:row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A343" t="s">
         <x:v>467</x:v>
       </x:c>
@@ -7180,7 +7188,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="344">
+    <x:row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A344" t="s">
         <x:v>468</x:v>
       </x:c>
@@ -7191,7 +7199,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="345">
+    <x:row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A345" t="s">
         <x:v>470</x:v>
       </x:c>
@@ -7202,7 +7210,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="346">
+    <x:row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A346" t="s">
         <x:v>471</x:v>
       </x:c>
@@ -7213,7 +7221,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="347">
+    <x:row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A347" t="s">
         <x:v>473</x:v>
       </x:c>
@@ -7224,7 +7232,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="348">
+    <x:row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A348" t="s">
         <x:v>474</x:v>
       </x:c>
@@ -7235,7 +7243,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="349">
+    <x:row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A349" t="s">
         <x:v>476</x:v>
       </x:c>
@@ -7246,7 +7254,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="350">
+    <x:row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A350" t="s">
         <x:v>477</x:v>
       </x:c>
@@ -7257,7 +7265,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="351">
+    <x:row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A351" t="s">
         <x:v>479</x:v>
       </x:c>
@@ -7268,7 +7276,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="352">
+    <x:row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A352" t="s">
         <x:v>480</x:v>
       </x:c>
@@ -7279,7 +7287,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="353">
+    <x:row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A353" t="s">
         <x:v>482</x:v>
       </x:c>
@@ -7290,7 +7298,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="354">
+    <x:row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A354" t="s">
         <x:v>483</x:v>
       </x:c>
@@ -7301,7 +7309,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="355">
+    <x:row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A355" t="s">
         <x:v>485</x:v>
       </x:c>
@@ -7312,7 +7320,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="356">
+    <x:row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A356" t="s">
         <x:v>486</x:v>
       </x:c>
@@ -7323,7 +7331,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="357">
+    <x:row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A357" t="s">
         <x:v>488</x:v>
       </x:c>
@@ -7334,7 +7342,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="358">
+    <x:row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A358" t="s">
         <x:v>489</x:v>
       </x:c>
@@ -7345,7 +7353,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="359">
+    <x:row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A359" t="s">
         <x:v>491</x:v>
       </x:c>
@@ -7356,7 +7364,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="360">
+    <x:row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A360" t="s">
         <x:v>492</x:v>
       </x:c>
@@ -7367,7 +7375,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="361">
+    <x:row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A361" t="s">
         <x:v>494</x:v>
       </x:c>
@@ -7378,7 +7386,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="362">
+    <x:row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A362" t="s">
         <x:v>495</x:v>
       </x:c>
@@ -7389,7 +7397,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="363">
+    <x:row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A363" t="s">
         <x:v>497</x:v>
       </x:c>
@@ -7400,7 +7408,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="364">
+    <x:row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A364" t="s">
         <x:v>498</x:v>
       </x:c>
@@ -7411,7 +7419,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="365">
+    <x:row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A365" t="s">
         <x:v>500</x:v>
       </x:c>
@@ -7422,7 +7430,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="366">
+    <x:row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A366" t="s">
         <x:v>501</x:v>
       </x:c>
@@ -7433,7 +7441,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="367">
+    <x:row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A367" t="s">
         <x:v>503</x:v>
       </x:c>
@@ -7444,7 +7452,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="368">
+    <x:row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A368" t="s">
         <x:v>504</x:v>
       </x:c>
@@ -7455,7 +7463,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="369">
+    <x:row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A369" t="s">
         <x:v>506</x:v>
       </x:c>
@@ -7466,7 +7474,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="370">
+    <x:row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A370" t="s">
         <x:v>507</x:v>
       </x:c>
@@ -7477,7 +7485,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="371">
+    <x:row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A371" t="s">
         <x:v>509</x:v>
       </x:c>
@@ -7488,7 +7496,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="372">
+    <x:row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A372" t="s">
         <x:v>510</x:v>
       </x:c>
@@ -7499,7 +7507,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="373">
+    <x:row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A373" t="s">
         <x:v>512</x:v>
       </x:c>
@@ -7510,7 +7518,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="374">
+    <x:row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A374" t="s">
         <x:v>513</x:v>
       </x:c>
@@ -7521,7 +7529,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="375">
+    <x:row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A375" t="s">
         <x:v>515</x:v>
       </x:c>
@@ -7532,7 +7540,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="376">
+    <x:row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A376" t="s">
         <x:v>516</x:v>
       </x:c>
@@ -7543,7 +7551,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="377">
+    <x:row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A377" t="s">
         <x:v>518</x:v>
       </x:c>
@@ -7554,7 +7562,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="378">
+    <x:row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A378" t="s">
         <x:v>519</x:v>
       </x:c>
@@ -7565,7 +7573,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="379">
+    <x:row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A379" t="s">
         <x:v>521</x:v>
       </x:c>
@@ -7576,7 +7584,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="380">
+    <x:row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A380" t="s">
         <x:v>522</x:v>
       </x:c>
@@ -7587,7 +7595,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="381">
+    <x:row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A381" t="s">
         <x:v>524</x:v>
       </x:c>
@@ -7598,7 +7606,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="382">
+    <x:row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A382" t="s">
         <x:v>525</x:v>
       </x:c>
@@ -7609,7 +7617,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="383">
+    <x:row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A383" t="s">
         <x:v>527</x:v>
       </x:c>
@@ -7620,7 +7628,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="384">
+    <x:row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A384" t="s">
         <x:v>528</x:v>
       </x:c>
@@ -7631,7 +7639,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="385">
+    <x:row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A385" t="s">
         <x:v>530</x:v>
       </x:c>
@@ -7642,7 +7650,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="386">
+    <x:row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A386" t="s">
         <x:v>531</x:v>
       </x:c>
@@ -7653,7 +7661,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="387">
+    <x:row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A387" t="s">
         <x:v>533</x:v>
       </x:c>
@@ -7664,7 +7672,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="388">
+    <x:row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A388" t="s">
         <x:v>534</x:v>
       </x:c>
@@ -7675,7 +7683,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="389">
+    <x:row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A389" t="s">
         <x:v>536</x:v>
       </x:c>
@@ -7686,7 +7694,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="390">
+    <x:row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A390" t="s">
         <x:v>537</x:v>
       </x:c>
@@ -7697,7 +7705,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="391">
+    <x:row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A391" t="s">
         <x:v>539</x:v>
       </x:c>
@@ -7708,7 +7716,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="392">
+    <x:row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A392" t="s">
         <x:v>540</x:v>
       </x:c>
@@ -7719,7 +7727,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="393">
+    <x:row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A393" t="s">
         <x:v>542</x:v>
       </x:c>
@@ -7730,7 +7738,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="394">
+    <x:row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A394" t="s">
         <x:v>543</x:v>
       </x:c>
@@ -7741,7 +7749,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="395">
+    <x:row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A395" t="s">
         <x:v>544</x:v>
       </x:c>
@@ -7752,7 +7760,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="396">
+    <x:row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A396" t="s">
         <x:v>545</x:v>
       </x:c>
@@ -7763,7 +7771,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="397">
+    <x:row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A397" t="s">
         <x:v>547</x:v>
       </x:c>
@@ -7774,7 +7782,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="398">
+    <x:row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A398" t="s">
         <x:v>548</x:v>
       </x:c>
@@ -7785,7 +7793,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="399">
+    <x:row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A399" t="s">
         <x:v>550</x:v>
       </x:c>
@@ -7796,7 +7804,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="400">
+    <x:row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A400" t="s">
         <x:v>551</x:v>
       </x:c>
@@ -7807,7 +7815,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="401">
+    <x:row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A401" t="s">
         <x:v>553</x:v>
       </x:c>
@@ -7818,7 +7826,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="402">
+    <x:row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A402" t="s">
         <x:v>554</x:v>
       </x:c>
@@ -7829,7 +7837,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="403">
+    <x:row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A403" t="s">
         <x:v>556</x:v>
       </x:c>
@@ -7840,7 +7848,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="404">
+    <x:row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A404" t="s">
         <x:v>557</x:v>
       </x:c>
@@ -7851,7 +7859,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="405">
+    <x:row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A405" t="s">
         <x:v>559</x:v>
       </x:c>
@@ -7862,7 +7870,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="406">
+    <x:row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A406" t="s">
         <x:v>560</x:v>
       </x:c>
@@ -7873,7 +7881,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="407">
+    <x:row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A407" t="s">
         <x:v>562</x:v>
       </x:c>
@@ -7884,7 +7892,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="408">
+    <x:row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A408" t="s">
         <x:v>563</x:v>
       </x:c>
@@ -7895,7 +7903,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="409">
+    <x:row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A409" t="s">
         <x:v>565</x:v>
       </x:c>
@@ -7906,7 +7914,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="410">
+    <x:row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A410" t="s">
         <x:v>566</x:v>
       </x:c>
@@ -7917,7 +7925,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="411">
+    <x:row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A411" t="s">
         <x:v>568</x:v>
       </x:c>
@@ -7928,7 +7936,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="412">
+    <x:row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A412" t="s">
         <x:v>569</x:v>
       </x:c>
@@ -7939,7 +7947,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="413">
+    <x:row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A413" t="s">
         <x:v>571</x:v>
       </x:c>
@@ -7950,7 +7958,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="414">
+    <x:row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A414" t="s">
         <x:v>572</x:v>
       </x:c>
@@ -7961,7 +7969,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="415">
+    <x:row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A415" t="s">
         <x:v>574</x:v>
       </x:c>
@@ -7972,7 +7980,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="416">
+    <x:row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A416" t="s">
         <x:v>575</x:v>
       </x:c>
@@ -7983,7 +7991,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="417">
+    <x:row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A417" t="s">
         <x:v>577</x:v>
       </x:c>
@@ -7994,7 +8002,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="418">
+    <x:row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A418" t="s">
         <x:v>578</x:v>
       </x:c>
@@ -8005,7 +8013,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="419">
+    <x:row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A419" t="s">
         <x:v>580</x:v>
       </x:c>
@@ -8016,7 +8024,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="420">
+    <x:row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A420" t="s">
         <x:v>581</x:v>
       </x:c>
@@ -8027,7 +8035,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="421">
+    <x:row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A421" t="s">
         <x:v>583</x:v>
       </x:c>
@@ -8038,7 +8046,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="422">
+    <x:row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A422" t="s">
         <x:v>584</x:v>
       </x:c>
@@ -8049,7 +8057,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="423">
+    <x:row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A423" t="s">
         <x:v>586</x:v>
       </x:c>
@@ -8060,7 +8068,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="424">
+    <x:row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A424" t="s">
         <x:v>587</x:v>
       </x:c>
@@ -8071,7 +8079,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="425">
+    <x:row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A425" t="s">
         <x:v>589</x:v>
       </x:c>
@@ -8082,7 +8090,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="426">
+    <x:row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A426" t="s">
         <x:v>590</x:v>
       </x:c>
@@ -8093,7 +8101,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="427">
+    <x:row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A427" t="s">
         <x:v>592</x:v>
       </x:c>
@@ -8104,7 +8112,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="428">
+    <x:row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A428" t="s">
         <x:v>593</x:v>
       </x:c>
@@ -8115,7 +8123,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="429">
+    <x:row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A429" t="s">
         <x:v>595</x:v>
       </x:c>
@@ -8126,7 +8134,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="430">
+    <x:row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A430" t="s">
         <x:v>596</x:v>
       </x:c>
@@ -8137,7 +8145,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="431">
+    <x:row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A431" t="s">
         <x:v>598</x:v>
       </x:c>
@@ -8148,7 +8156,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="432">
+    <x:row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A432" t="s">
         <x:v>599</x:v>
       </x:c>
@@ -8159,7 +8167,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="433">
+    <x:row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A433" t="s">
         <x:v>601</x:v>
       </x:c>
@@ -8170,7 +8178,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="434">
+    <x:row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A434" t="s">
         <x:v>602</x:v>
       </x:c>
@@ -8181,7 +8189,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="435">
+    <x:row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A435" t="s">
         <x:v>604</x:v>
       </x:c>
@@ -8192,7 +8200,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="436">
+    <x:row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A436" t="s">
         <x:v>605</x:v>
       </x:c>
@@ -8203,7 +8211,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="437">
+    <x:row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A437" t="s">
         <x:v>607</x:v>
       </x:c>
@@ -8214,7 +8222,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="438">
+    <x:row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A438" t="s">
         <x:v>608</x:v>
       </x:c>
@@ -8225,7 +8233,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="439">
+    <x:row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A439" t="s">
         <x:v>610</x:v>
       </x:c>
@@ -8236,7 +8244,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="440">
+    <x:row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A440" t="s">
         <x:v>611</x:v>
       </x:c>
@@ -8247,7 +8255,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="441">
+    <x:row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A441" t="s">
         <x:v>613</x:v>
       </x:c>
@@ -8258,7 +8266,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="442">
+    <x:row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A442" t="s">
         <x:v>614</x:v>
       </x:c>
@@ -8269,7 +8277,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="443">
+    <x:row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A443" t="s">
         <x:v>616</x:v>
       </x:c>
@@ -8280,7 +8288,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="444">
+    <x:row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A444" t="s">
         <x:v>617</x:v>
       </x:c>
@@ -8291,7 +8299,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="445">
+    <x:row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A445" t="s">
         <x:v>619</x:v>
       </x:c>
@@ -8302,7 +8310,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="446">
+    <x:row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A446" t="s">
         <x:v>620</x:v>
       </x:c>
@@ -8313,7 +8321,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="447">
+    <x:row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A447" t="s">
         <x:v>622</x:v>
       </x:c>
@@ -8324,7 +8332,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="448">
+    <x:row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A448" t="s">
         <x:v>623</x:v>
       </x:c>
@@ -8335,7 +8343,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="449">
+    <x:row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A449" t="s">
         <x:v>625</x:v>
       </x:c>
@@ -8346,7 +8354,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="450">
+    <x:row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A450" t="s">
         <x:v>626</x:v>
       </x:c>
@@ -8357,7 +8365,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="451">
+    <x:row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A451" t="s">
         <x:v>628</x:v>
       </x:c>
@@ -8368,7 +8376,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="452">
+    <x:row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A452" t="s">
         <x:v>629</x:v>
       </x:c>
@@ -8379,7 +8387,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="453">
+    <x:row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A453" t="s">
         <x:v>631</x:v>
       </x:c>
@@ -8390,7 +8398,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="454">
+    <x:row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A454" t="s">
         <x:v>632</x:v>
       </x:c>
@@ -8401,7 +8409,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="455">
+    <x:row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A455" t="s">
         <x:v>634</x:v>
       </x:c>
@@ -8412,7 +8420,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="456">
+    <x:row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A456" t="s">
         <x:v>635</x:v>
       </x:c>
@@ -8423,7 +8431,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="457">
+    <x:row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A457" t="s">
         <x:v>637</x:v>
       </x:c>
@@ -8434,7 +8442,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="458">
+    <x:row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A458" t="s">
         <x:v>638</x:v>
       </x:c>
@@ -8445,7 +8453,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="459">
+    <x:row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A459" t="s">
         <x:v>640</x:v>
       </x:c>
@@ -8456,7 +8464,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="460">
+    <x:row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A460" t="s">
         <x:v>641</x:v>
       </x:c>
@@ -8467,7 +8475,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="461">
+    <x:row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A461" t="s">
         <x:v>643</x:v>
       </x:c>
@@ -8478,7 +8486,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="462">
+    <x:row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A462" t="s">
         <x:v>644</x:v>
       </x:c>
@@ -8489,7 +8497,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="463">
+    <x:row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A463" t="s">
         <x:v>646</x:v>
       </x:c>
@@ -8500,7 +8508,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="464">
+    <x:row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A464" t="s">
         <x:v>647</x:v>
       </x:c>
@@ -8511,7 +8519,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="465">
+    <x:row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A465" t="s">
         <x:v>649</x:v>
       </x:c>
@@ -8522,7 +8530,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="466">
+    <x:row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A466" t="s">
         <x:v>650</x:v>
       </x:c>
@@ -8533,7 +8541,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="467">
+    <x:row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A467" t="s">
         <x:v>652</x:v>
       </x:c>
@@ -8544,7 +8552,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="468">
+    <x:row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A468" t="s">
         <x:v>653</x:v>
       </x:c>
@@ -8555,7 +8563,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="469">
+    <x:row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A469" t="s">
         <x:v>655</x:v>
       </x:c>
@@ -8566,7 +8574,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="470">
+    <x:row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A470" t="s">
         <x:v>656</x:v>
       </x:c>
@@ -8577,7 +8585,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="471">
+    <x:row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A471" t="s">
         <x:v>658</x:v>
       </x:c>
@@ -8588,7 +8596,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="472">
+    <x:row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A472" t="s">
         <x:v>659</x:v>
       </x:c>
@@ -8599,7 +8607,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="473">
+    <x:row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A473" t="s">
         <x:v>661</x:v>
       </x:c>
@@ -8610,7 +8618,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="474">
+    <x:row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A474" t="s">
         <x:v>662</x:v>
       </x:c>
@@ -8621,7 +8629,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="475">
+    <x:row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A475" t="s">
         <x:v>664</x:v>
       </x:c>
@@ -8632,7 +8640,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="476">
+    <x:row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A476" t="s">
         <x:v>665</x:v>
       </x:c>
@@ -8643,7 +8651,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="477">
+    <x:row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A477" t="s">
         <x:v>667</x:v>
       </x:c>
@@ -8654,7 +8662,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="478">
+    <x:row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A478" t="s">
         <x:v>668</x:v>
       </x:c>
@@ -8665,7 +8673,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="479">
+    <x:row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A479" t="s">
         <x:v>670</x:v>
       </x:c>
@@ -8676,7 +8684,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="480">
+    <x:row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A480" t="s">
         <x:v>671</x:v>
       </x:c>
@@ -8687,7 +8695,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="481">
+    <x:row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A481" t="s">
         <x:v>673</x:v>
       </x:c>
@@ -8698,7 +8706,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="482">
+    <x:row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A482" t="s">
         <x:v>674</x:v>
       </x:c>
@@ -8709,7 +8717,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="483">
+    <x:row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A483" t="s">
         <x:v>676</x:v>
       </x:c>
@@ -8720,7 +8728,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="484">
+    <x:row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A484" t="s">
         <x:v>677</x:v>
       </x:c>
@@ -8731,7 +8739,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="485">
+    <x:row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A485" t="s">
         <x:v>679</x:v>
       </x:c>
@@ -8742,7 +8750,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="486">
+    <x:row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A486" t="s">
         <x:v>680</x:v>
       </x:c>
@@ -8753,7 +8761,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="487">
+    <x:row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A487" t="s">
         <x:v>682</x:v>
       </x:c>
@@ -8764,7 +8772,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="488">
+    <x:row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A488" t="s">
         <x:v>683</x:v>
       </x:c>
@@ -8775,7 +8783,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="489">
+    <x:row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A489" t="s">
         <x:v>685</x:v>
       </x:c>
@@ -8786,7 +8794,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="490">
+    <x:row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A490" t="s">
         <x:v>686</x:v>
       </x:c>
@@ -8797,7 +8805,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="491">
+    <x:row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A491" t="s">
         <x:v>688</x:v>
       </x:c>
@@ -8808,7 +8816,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="492">
+    <x:row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A492" t="s">
         <x:v>689</x:v>
       </x:c>
@@ -8819,7 +8827,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="493">
+    <x:row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A493" t="s">
         <x:v>691</x:v>
       </x:c>
@@ -8830,7 +8838,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="494">
+    <x:row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A494" t="s">
         <x:v>692</x:v>
       </x:c>
@@ -8841,7 +8849,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="495">
+    <x:row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A495" t="s">
         <x:v>694</x:v>
       </x:c>
@@ -8852,7 +8860,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="496">
+    <x:row r="496" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A496" t="s">
         <x:v>695</x:v>
       </x:c>
@@ -8863,7 +8871,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="497">
+    <x:row r="497" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A497" t="s">
         <x:v>696</x:v>
       </x:c>
@@ -8874,7 +8882,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="498">
+    <x:row r="498" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A498" t="s">
         <x:v>697</x:v>
       </x:c>
@@ -8885,7 +8893,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="499">
+    <x:row r="499" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A499" t="s">
         <x:v>699</x:v>
       </x:c>
@@ -8896,7 +8904,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="500">
+    <x:row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A500" t="s">
         <x:v>700</x:v>
       </x:c>
@@ -8907,7 +8915,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="501">
+    <x:row r="501" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A501" t="s">
         <x:v>702</x:v>
       </x:c>
@@ -8918,7 +8926,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="502">
+    <x:row r="502" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A502" t="s">
         <x:v>703</x:v>
       </x:c>
@@ -8929,7 +8937,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="503">
+    <x:row r="503" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A503" t="s">
         <x:v>705</x:v>
       </x:c>
@@ -8940,7 +8948,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="504">
+    <x:row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A504" t="s">
         <x:v>706</x:v>
       </x:c>
@@ -8951,7 +8959,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="505">
+    <x:row r="505" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A505" t="s">
         <x:v>708</x:v>
       </x:c>
@@ -8962,7 +8970,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="506">
+    <x:row r="506" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A506" t="s">
         <x:v>709</x:v>
       </x:c>
@@ -8973,7 +8981,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="507">
+    <x:row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A507" t="s">
         <x:v>711</x:v>
       </x:c>
@@ -8984,7 +8992,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="508">
+    <x:row r="508" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A508" t="s">
         <x:v>712</x:v>
       </x:c>
@@ -8995,7 +9003,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="509">
+    <x:row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A509" t="s">
         <x:v>714</x:v>
       </x:c>
@@ -9006,7 +9014,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="510">
+    <x:row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A510" t="s">
         <x:v>715</x:v>
       </x:c>
@@ -9017,7 +9025,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="511">
+    <x:row r="511" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A511" t="s">
         <x:v>717</x:v>
       </x:c>
@@ -9028,7 +9036,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="512">
+    <x:row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A512" t="s">
         <x:v>718</x:v>
       </x:c>
@@ -9039,7 +9047,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="513">
+    <x:row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A513" t="s">
         <x:v>720</x:v>
       </x:c>
@@ -9050,7 +9058,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="514">
+    <x:row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A514" t="s">
         <x:v>721</x:v>
       </x:c>
@@ -9061,7 +9069,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="515">
+    <x:row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A515" t="s">
         <x:v>723</x:v>
       </x:c>
@@ -9072,7 +9080,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="516">
+    <x:row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A516" t="s">
         <x:v>724</x:v>
       </x:c>
@@ -9083,7 +9091,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="517">
+    <x:row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A517" t="s">
         <x:v>726</x:v>
       </x:c>
@@ -9094,7 +9102,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="518">
+    <x:row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A518" t="s">
         <x:v>727</x:v>
       </x:c>
@@ -9105,7 +9113,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="519">
+    <x:row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A519" t="s">
         <x:v>729</x:v>
       </x:c>
@@ -9116,7 +9124,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="520">
+    <x:row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A520" t="s">
         <x:v>730</x:v>
       </x:c>
@@ -9127,7 +9135,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="521">
+    <x:row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A521" t="s">
         <x:v>732</x:v>
       </x:c>
@@ -9138,7 +9146,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="522">
+    <x:row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A522" t="s">
         <x:v>733</x:v>
       </x:c>
@@ -9149,7 +9157,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="523">
+    <x:row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A523" t="s">
         <x:v>735</x:v>
       </x:c>
@@ -9160,7 +9168,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="524">
+    <x:row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A524" t="s">
         <x:v>736</x:v>
       </x:c>
@@ -9171,7 +9179,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="525">
+    <x:row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A525" t="s">
         <x:v>738</x:v>
       </x:c>
@@ -9182,7 +9190,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="526">
+    <x:row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A526" t="s">
         <x:v>739</x:v>
       </x:c>
@@ -9193,7 +9201,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="527">
+    <x:row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A527" t="s">
         <x:v>741</x:v>
       </x:c>
@@ -9204,7 +9212,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="528">
+    <x:row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A528" t="s">
         <x:v>742</x:v>
       </x:c>
@@ -9215,7 +9223,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="529">
+    <x:row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A529" t="s">
         <x:v>744</x:v>
       </x:c>
@@ -9226,7 +9234,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="530">
+    <x:row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A530" t="s">
         <x:v>745</x:v>
       </x:c>
@@ -9237,7 +9245,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="531">
+    <x:row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A531" t="s">
         <x:v>747</x:v>
       </x:c>
@@ -9248,7 +9256,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="532">
+    <x:row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A532" t="s">
         <x:v>748</x:v>
       </x:c>
@@ -9259,7 +9267,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="533">
+    <x:row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A533" t="s">
         <x:v>750</x:v>
       </x:c>
@@ -9270,7 +9278,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="534">
+    <x:row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A534" t="s">
         <x:v>751</x:v>
       </x:c>
@@ -9281,7 +9289,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="535">
+    <x:row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A535" t="s">
         <x:v>753</x:v>
       </x:c>
@@ -9292,7 +9300,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="536">
+    <x:row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A536" t="s">
         <x:v>754</x:v>
       </x:c>
@@ -9303,7 +9311,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="537">
+    <x:row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A537" t="s">
         <x:v>756</x:v>
       </x:c>
@@ -9314,7 +9322,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="538">
+    <x:row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A538" t="s">
         <x:v>757</x:v>
       </x:c>
@@ -9325,7 +9333,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="539">
+    <x:row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A539" t="s">
         <x:v>759</x:v>
       </x:c>
@@ -9336,7 +9344,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="540">
+    <x:row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A540" t="s">
         <x:v>760</x:v>
       </x:c>
@@ -9347,7 +9355,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="541">
+    <x:row r="541" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A541" t="s">
         <x:v>762</x:v>
       </x:c>
@@ -9358,7 +9366,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="542">
+    <x:row r="542" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A542" t="s">
         <x:v>763</x:v>
       </x:c>
@@ -9369,7 +9377,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="543">
+    <x:row r="543" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A543" t="s">
         <x:v>765</x:v>
       </x:c>
@@ -9380,7 +9388,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="544">
+    <x:row r="544" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A544" t="s">
         <x:v>766</x:v>
       </x:c>
@@ -9391,7 +9399,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="545">
+    <x:row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A545" t="s">
         <x:v>768</x:v>
       </x:c>
@@ -9402,7 +9410,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="546">
+    <x:row r="546" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A546" t="s">
         <x:v>769</x:v>
       </x:c>
@@ -9413,7 +9421,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="547">
+    <x:row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A547" t="s">
         <x:v>771</x:v>
       </x:c>
@@ -9424,7 +9432,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="548">
+    <x:row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A548" t="s">
         <x:v>772</x:v>
       </x:c>
@@ -9435,7 +9443,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="549">
+    <x:row r="549" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A549" t="s">
         <x:v>774</x:v>
       </x:c>
@@ -9446,7 +9454,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="550">
+    <x:row r="550" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A550" t="s">
         <x:v>775</x:v>
       </x:c>
@@ -9457,7 +9465,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="551">
+    <x:row r="551" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A551" t="s">
         <x:v>777</x:v>
       </x:c>
@@ -9468,7 +9476,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="552">
+    <x:row r="552" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A552" t="s">
         <x:v>778</x:v>
       </x:c>
@@ -9479,7 +9487,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="553">
+    <x:row r="553" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A553" t="s">
         <x:v>780</x:v>
       </x:c>
@@ -9490,7 +9498,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="554">
+    <x:row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A554" t="s">
         <x:v>781</x:v>
       </x:c>
@@ -9501,7 +9509,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="555">
+    <x:row r="555" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A555" t="s">
         <x:v>783</x:v>
       </x:c>
@@ -9512,7 +9520,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="556">
+    <x:row r="556" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A556" t="s">
         <x:v>784</x:v>
       </x:c>
@@ -9523,7 +9531,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="557">
+    <x:row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A557" t="s">
         <x:v>786</x:v>
       </x:c>
@@ -9534,7 +9542,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="558">
+    <x:row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A558" t="s">
         <x:v>787</x:v>
       </x:c>
@@ -9545,7 +9553,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="559">
+    <x:row r="559" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A559" t="s">
         <x:v>789</x:v>
       </x:c>
@@ -9556,7 +9564,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="560">
+    <x:row r="560" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A560" t="s">
         <x:v>790</x:v>
       </x:c>
@@ -9567,7 +9575,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="561">
+    <x:row r="561" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A561" t="s">
         <x:v>792</x:v>
       </x:c>
@@ -9578,7 +9586,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="562">
+    <x:row r="562" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A562" t="s">
         <x:v>793</x:v>
       </x:c>
@@ -9589,7 +9597,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="563">
+    <x:row r="563" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A563" t="s">
         <x:v>795</x:v>
       </x:c>
@@ -9600,7 +9608,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="564">
+    <x:row r="564" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A564" t="s">
         <x:v>796</x:v>
       </x:c>
@@ -9611,7 +9619,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="565">
+    <x:row r="565" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A565" t="s">
         <x:v>798</x:v>
       </x:c>
@@ -9622,7 +9630,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="566">
+    <x:row r="566" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A566" t="s">
         <x:v>799</x:v>
       </x:c>
@@ -9633,7 +9641,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="567">
+    <x:row r="567" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A567" t="s">
         <x:v>801</x:v>
       </x:c>
@@ -9644,7 +9652,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="568">
+    <x:row r="568" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A568" t="s">
         <x:v>802</x:v>
       </x:c>
@@ -9655,7 +9663,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="569">
+    <x:row r="569" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A569" t="s">
         <x:v>804</x:v>
       </x:c>
@@ -9666,7 +9674,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="570">
+    <x:row r="570" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A570" t="s">
         <x:v>805</x:v>
       </x:c>
@@ -9677,7 +9685,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="571">
+    <x:row r="571" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A571" t="s">
         <x:v>807</x:v>
       </x:c>
@@ -9688,7 +9696,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="572">
+    <x:row r="572" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A572" t="s">
         <x:v>808</x:v>
       </x:c>
@@ -9699,7 +9707,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="573">
+    <x:row r="573" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A573" t="s">
         <x:v>810</x:v>
       </x:c>
@@ -9710,7 +9718,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="574">
+    <x:row r="574" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A574" t="s">
         <x:v>811</x:v>
       </x:c>
@@ -9721,7 +9729,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="575">
+    <x:row r="575" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A575" t="s">
         <x:v>813</x:v>
       </x:c>
@@ -9732,7 +9740,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="576">
+    <x:row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A576" t="s">
         <x:v>814</x:v>
       </x:c>
@@ -9743,7 +9751,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="577">
+    <x:row r="577" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A577" t="s">
         <x:v>816</x:v>
       </x:c>
@@ -9754,7 +9762,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="578">
+    <x:row r="578" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A578" t="s">
         <x:v>817</x:v>
       </x:c>
@@ -9765,7 +9773,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="579">
+    <x:row r="579" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A579" t="s">
         <x:v>819</x:v>
       </x:c>
@@ -9776,7 +9784,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="580">
+    <x:row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A580" t="s">
         <x:v>820</x:v>
       </x:c>
@@ -9787,7 +9795,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="581">
+    <x:row r="581" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A581" t="s">
         <x:v>822</x:v>
       </x:c>
@@ -9798,7 +9806,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="582">
+    <x:row r="582" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A582" t="s">
         <x:v>823</x:v>
       </x:c>
@@ -9809,7 +9817,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="583">
+    <x:row r="583" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A583" t="s">
         <x:v>825</x:v>
       </x:c>
@@ -9820,7 +9828,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="584">
+    <x:row r="584" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A584" t="s">
         <x:v>826</x:v>
       </x:c>
@@ -9831,7 +9839,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="585">
+    <x:row r="585" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A585" t="s">
         <x:v>828</x:v>
       </x:c>
@@ -9842,7 +9850,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="586">
+    <x:row r="586" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A586" t="s">
         <x:v>829</x:v>
       </x:c>
@@ -9853,7 +9861,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="587">
+    <x:row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A587" t="s">
         <x:v>831</x:v>
       </x:c>
@@ -9864,7 +9872,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="588">
+    <x:row r="588" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A588" t="s">
         <x:v>832</x:v>
       </x:c>
@@ -9875,7 +9883,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="589">
+    <x:row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A589" t="s">
         <x:v>834</x:v>
       </x:c>
@@ -9886,7 +9894,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="590">
+    <x:row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A590" t="s">
         <x:v>835</x:v>
       </x:c>
@@ -9897,7 +9905,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="591">
+    <x:row r="591" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A591" t="s">
         <x:v>837</x:v>
       </x:c>
@@ -9908,7 +9916,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="592">
+    <x:row r="592" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A592" t="s">
         <x:v>838</x:v>
       </x:c>
@@ -9919,7 +9927,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="593">
+    <x:row r="593" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A593" t="s">
         <x:v>840</x:v>
       </x:c>
@@ -9930,7 +9938,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="594">
+    <x:row r="594" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A594" t="s">
         <x:v>841</x:v>
       </x:c>
@@ -9941,7 +9949,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="595">
+    <x:row r="595" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A595" t="s">
         <x:v>843</x:v>
       </x:c>
@@ -9952,7 +9960,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="596">
+    <x:row r="596" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A596" t="s">
         <x:v>844</x:v>
       </x:c>
@@ -9963,7 +9971,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="597">
+    <x:row r="597" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A597" t="s">
         <x:v>846</x:v>
       </x:c>
@@ -9974,7 +9982,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="598">
+    <x:row r="598" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A598" t="s">
         <x:v>847</x:v>
       </x:c>
@@ -9985,7 +9993,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="599">
+    <x:row r="599" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A599" t="s">
         <x:v>849</x:v>
       </x:c>
@@ -9996,7 +10004,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="600">
+    <x:row r="600" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A600" t="s">
         <x:v>850</x:v>
       </x:c>
@@ -10007,7 +10015,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="601">
+    <x:row r="601" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A601" t="s">
         <x:v>852</x:v>
       </x:c>
@@ -10018,7 +10026,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="602">
+    <x:row r="602" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A602" t="s">
         <x:v>853</x:v>
       </x:c>
@@ -10029,7 +10037,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="603">
+    <x:row r="603" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A603" t="s">
         <x:v>855</x:v>
       </x:c>
@@ -10040,7 +10048,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="604">
+    <x:row r="604" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A604" t="s">
         <x:v>856</x:v>
       </x:c>
@@ -10051,7 +10059,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="605">
+    <x:row r="605" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A605" t="s">
         <x:v>858</x:v>
       </x:c>
@@ -10062,7 +10070,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="606">
+    <x:row r="606" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A606" t="s">
         <x:v>859</x:v>
       </x:c>
@@ -10073,7 +10081,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="607">
+    <x:row r="607" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A607" t="s">
         <x:v>861</x:v>
       </x:c>
@@ -10084,7 +10092,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="608">
+    <x:row r="608" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A608" t="s">
         <x:v>862</x:v>
       </x:c>
@@ -10095,7 +10103,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="609">
+    <x:row r="609" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A609" t="s">
         <x:v>864</x:v>
       </x:c>
@@ -10106,7 +10114,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="610">
+    <x:row r="610" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A610" t="s">
         <x:v>865</x:v>
       </x:c>
@@ -10117,7 +10125,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="611">
+    <x:row r="611" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A611" t="s">
         <x:v>867</x:v>
       </x:c>
@@ -10128,7 +10136,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="612">
+    <x:row r="612" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A612" t="s">
         <x:v>868</x:v>
       </x:c>
@@ -10139,7 +10147,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="613">
+    <x:row r="613" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A613" t="s">
         <x:v>870</x:v>
       </x:c>
@@ -10150,7 +10158,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="614">
+    <x:row r="614" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A614" t="s">
         <x:v>871</x:v>
       </x:c>
@@ -10161,7 +10169,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="615">
+    <x:row r="615" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A615" t="s">
         <x:v>873</x:v>
       </x:c>
@@ -10172,7 +10180,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="616">
+    <x:row r="616" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A616" t="s">
         <x:v>874</x:v>
       </x:c>
@@ -10183,7 +10191,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="617">
+    <x:row r="617" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A617" t="s">
         <x:v>876</x:v>
       </x:c>
@@ -10194,7 +10202,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="618">
+    <x:row r="618" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A618" t="s">
         <x:v>877</x:v>
       </x:c>
@@ -10205,7 +10213,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="619">
+    <x:row r="619" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A619" t="s">
         <x:v>879</x:v>
       </x:c>
@@ -10216,7 +10224,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="620">
+    <x:row r="620" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A620" t="s">
         <x:v>880</x:v>
       </x:c>
@@ -10227,7 +10235,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="621">
+    <x:row r="621" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A621" t="s">
         <x:v>882</x:v>
       </x:c>
@@ -10238,7 +10246,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="622">
+    <x:row r="622" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A622" t="s">
         <x:v>883</x:v>
       </x:c>
@@ -10249,7 +10257,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="623">
+    <x:row r="623" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A623" t="s">
         <x:v>885</x:v>
       </x:c>
@@ -10260,7 +10268,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="624">
+    <x:row r="624" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A624" t="s">
         <x:v>886</x:v>
       </x:c>
@@ -10271,7 +10279,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="625">
+    <x:row r="625" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A625" t="s">
         <x:v>888</x:v>
       </x:c>
@@ -10282,7 +10290,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="626">
+    <x:row r="626" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A626" t="s">
         <x:v>889</x:v>
       </x:c>
@@ -10293,7 +10301,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="627">
+    <x:row r="627" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A627" t="s">
         <x:v>891</x:v>
       </x:c>
@@ -10304,7 +10312,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="628">
+    <x:row r="628" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A628" t="s">
         <x:v>892</x:v>
       </x:c>
@@ -10315,7 +10323,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="629">
+    <x:row r="629" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A629" t="s">
         <x:v>894</x:v>
       </x:c>
@@ -10326,7 +10334,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="630">
+    <x:row r="630" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A630" t="s">
         <x:v>895</x:v>
       </x:c>
@@ -10337,7 +10345,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="631">
+    <x:row r="631" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A631" t="s">
         <x:v>897</x:v>
       </x:c>
@@ -10348,7 +10356,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="632">
+    <x:row r="632" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A632" t="s">
         <x:v>898</x:v>
       </x:c>
@@ -10359,7 +10367,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="633">
+    <x:row r="633" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A633" t="s">
         <x:v>900</x:v>
       </x:c>
@@ -10370,7 +10378,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="634">
+    <x:row r="634" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A634" t="s">
         <x:v>901</x:v>
       </x:c>
@@ -10381,7 +10389,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="635">
+    <x:row r="635" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A635" t="s">
         <x:v>903</x:v>
       </x:c>
@@ -10392,7 +10400,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="636">
+    <x:row r="636" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A636" t="s">
         <x:v>904</x:v>
       </x:c>
@@ -10403,7 +10411,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="637">
+    <x:row r="637" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A637" t="s">
         <x:v>906</x:v>
       </x:c>
@@ -10414,7 +10422,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="638">
+    <x:row r="638" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A638" t="s">
         <x:v>907</x:v>
       </x:c>
@@ -10425,7 +10433,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="639">
+    <x:row r="639" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A639" t="s">
         <x:v>909</x:v>
       </x:c>
@@ -10436,7 +10444,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="640">
+    <x:row r="640" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A640" t="s">
         <x:v>910</x:v>
       </x:c>
@@ -10447,7 +10455,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="641">
+    <x:row r="641" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A641" t="s">
         <x:v>912</x:v>
       </x:c>
@@ -10458,7 +10466,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="642">
+    <x:row r="642" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A642" t="s">
         <x:v>913</x:v>
       </x:c>
@@ -10469,7 +10477,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="643">
+    <x:row r="643" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A643" t="s">
         <x:v>915</x:v>
       </x:c>
@@ -10480,7 +10488,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="644">
+    <x:row r="644" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A644" t="s">
         <x:v>916</x:v>
       </x:c>
@@ -10491,7 +10499,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="645">
+    <x:row r="645" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A645" t="s">
         <x:v>918</x:v>
       </x:c>
@@ -10502,7 +10510,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="646">
+    <x:row r="646" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A646" t="s">
         <x:v>919</x:v>
       </x:c>
@@ -10513,7 +10521,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="647">
+    <x:row r="647" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A647" t="s">
         <x:v>921</x:v>
       </x:c>
@@ -10524,7 +10532,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="648">
+    <x:row r="648" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A648" t="s">
         <x:v>922</x:v>
       </x:c>
@@ -10535,7 +10543,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="649">
+    <x:row r="649" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A649" t="s">
         <x:v>924</x:v>
       </x:c>
@@ -10546,7 +10554,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="650">
+    <x:row r="650" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A650" t="s">
         <x:v>925</x:v>
       </x:c>
@@ -10557,7 +10565,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="651">
+    <x:row r="651" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A651" t="s">
         <x:v>927</x:v>
       </x:c>
@@ -10568,7 +10576,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="652">
+    <x:row r="652" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A652" t="s">
         <x:v>928</x:v>
       </x:c>
@@ -10579,7 +10587,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="653">
+    <x:row r="653" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A653" t="s">
         <x:v>930</x:v>
       </x:c>
@@ -10590,7 +10598,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="654">
+    <x:row r="654" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A654" t="s">
         <x:v>931</x:v>
       </x:c>
@@ -10601,7 +10609,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="655">
+    <x:row r="655" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A655" t="s">
         <x:v>933</x:v>
       </x:c>
@@ -10612,7 +10620,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="656">
+    <x:row r="656" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A656" t="s">
         <x:v>934</x:v>
       </x:c>
@@ -10623,7 +10631,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="657">
+    <x:row r="657" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A657" t="s">
         <x:v>936</x:v>
       </x:c>
@@ -10634,7 +10642,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="658">
+    <x:row r="658" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A658" t="s">
         <x:v>937</x:v>
       </x:c>
@@ -10645,7 +10653,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="659">
+    <x:row r="659" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A659" t="s">
         <x:v>939</x:v>
       </x:c>
@@ -10656,7 +10664,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="660">
+    <x:row r="660" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A660" t="s">
         <x:v>940</x:v>
       </x:c>
@@ -10667,7 +10675,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="661">
+    <x:row r="661" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A661" t="s">
         <x:v>942</x:v>
       </x:c>
@@ -10678,7 +10686,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="662">
+    <x:row r="662" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A662" t="s">
         <x:v>943</x:v>
       </x:c>
@@ -10689,7 +10697,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="663">
+    <x:row r="663" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A663" t="s">
         <x:v>945</x:v>
       </x:c>
@@ -10700,7 +10708,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="664">
+    <x:row r="664" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A664" t="s">
         <x:v>946</x:v>
       </x:c>
@@ -10711,7 +10719,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="665">
+    <x:row r="665" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A665" t="s">
         <x:v>948</x:v>
       </x:c>
@@ -10722,7 +10730,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="666">
+    <x:row r="666" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A666" t="s">
         <x:v>949</x:v>
       </x:c>
@@ -10733,7 +10741,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="667">
+    <x:row r="667" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A667" t="s">
         <x:v>951</x:v>
       </x:c>
@@ -10744,7 +10752,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="668">
+    <x:row r="668" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A668" t="s">
         <x:v>952</x:v>
       </x:c>
@@ -10755,7 +10763,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="669">
+    <x:row r="669" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A669" t="s">
         <x:v>954</x:v>
       </x:c>
@@ -10766,7 +10774,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="670">
+    <x:row r="670" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A670" t="s">
         <x:v>955</x:v>
       </x:c>
@@ -10777,7 +10785,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="671">
+    <x:row r="671" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A671" t="s">
         <x:v>957</x:v>
       </x:c>
@@ -10788,7 +10796,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="672">
+    <x:row r="672" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A672" t="s">
         <x:v>958</x:v>
       </x:c>
@@ -10799,7 +10807,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="673">
+    <x:row r="673" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A673" t="s">
         <x:v>960</x:v>
       </x:c>
@@ -10810,7 +10818,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="674">
+    <x:row r="674" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A674" t="s">
         <x:v>961</x:v>
       </x:c>
@@ -10821,7 +10829,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="675">
+    <x:row r="675" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A675" t="s">
         <x:v>963</x:v>
       </x:c>
@@ -10832,7 +10840,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="676">
+    <x:row r="676" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A676" t="s">
         <x:v>964</x:v>
       </x:c>
@@ -10843,7 +10851,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="677">
+    <x:row r="677" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A677" t="s">
         <x:v>966</x:v>
       </x:c>
@@ -10854,7 +10862,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="678">
+    <x:row r="678" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A678" t="s">
         <x:v>967</x:v>
       </x:c>
@@ -10865,7 +10873,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="679">
+    <x:row r="679" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A679" t="s">
         <x:v>969</x:v>
       </x:c>
@@ -10876,7 +10884,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="680">
+    <x:row r="680" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A680" t="s">
         <x:v>970</x:v>
       </x:c>
@@ -10887,7 +10895,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="681">
+    <x:row r="681" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A681" t="s">
         <x:v>972</x:v>
       </x:c>
@@ -10898,7 +10906,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="682">
+    <x:row r="682" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A682" t="s">
         <x:v>973</x:v>
       </x:c>
@@ -10909,7 +10917,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="683">
+    <x:row r="683" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A683" t="s">
         <x:v>975</x:v>
       </x:c>
@@ -10920,7 +10928,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="684">
+    <x:row r="684" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A684" t="s">
         <x:v>976</x:v>
       </x:c>
@@ -10931,7 +10939,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="685">
+    <x:row r="685" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A685" t="s">
         <x:v>978</x:v>
       </x:c>
@@ -10942,7 +10950,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="686">
+    <x:row r="686" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A686" t="s">
         <x:v>979</x:v>
       </x:c>
@@ -10953,7 +10961,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="687">
+    <x:row r="687" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A687" t="s">
         <x:v>981</x:v>
       </x:c>
@@ -10964,7 +10972,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="688">
+    <x:row r="688" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A688" t="s">
         <x:v>982</x:v>
       </x:c>
@@ -10975,7 +10983,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="689">
+    <x:row r="689" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A689" t="s">
         <x:v>984</x:v>
       </x:c>
@@ -10986,7 +10994,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="690">
+    <x:row r="690" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A690" t="s">
         <x:v>985</x:v>
       </x:c>
@@ -10997,7 +11005,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="691">
+    <x:row r="691" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A691" t="s">
         <x:v>987</x:v>
       </x:c>
@@ -11008,7 +11016,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="692">
+    <x:row r="692" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A692" t="s">
         <x:v>988</x:v>
       </x:c>
@@ -11019,7 +11027,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="693">
+    <x:row r="693" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A693" t="s">
         <x:v>990</x:v>
       </x:c>
@@ -11030,7 +11038,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="694">
+    <x:row r="694" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A694" t="s">
         <x:v>991</x:v>
       </x:c>
@@ -11041,7 +11049,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="695">
+    <x:row r="695" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A695" t="s">
         <x:v>993</x:v>
       </x:c>
@@ -11052,7 +11060,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="696">
+    <x:row r="696" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A696" t="s">
         <x:v>994</x:v>
       </x:c>
@@ -11063,7 +11071,7 @@
         <x:v>142</x:v>
       </x:c>
     </x:row>
-    <x:row r="697">
+    <x:row r="697" spans="1:3" x14ac:dyDescent="0.35">
       <x:c r="A697" t="s">
         <x:v>996</x:v>
       </x:c>
@@ -11072,6 +11080,28 @@
       </x:c>
       <x:c r="C697" t="s">
         <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="698">
+      <x:c r="A698" t="s">
+        <x:v>997</x:v>
+      </x:c>
+      <x:c r="B698" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C698" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="699">
+      <x:c r="A699" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="B699" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C699" t="s">
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
